--- a/Data/API Data/exfreight_output.xlsx
+++ b/Data/API Data/exfreight_output.xlsx
@@ -1,15 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ayyanagouda\Last Mile Rates\Data\API Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2215AA5A-2539-479D-86F6-200EF9F71C4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$871</definedName>
+  </definedNames>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -370,8 +379,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -434,13 +443,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -478,7 +495,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -512,6 +529,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -546,9 +564,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -721,14 +740,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L871"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I104" sqref="I104"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -763,7 +799,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -801,7 +837,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -833,13 +869,13 @@
         <v>2000</v>
       </c>
       <c r="K3">
-        <v>586.17</v>
+        <v>586.16999999999996</v>
       </c>
       <c r="L3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -871,13 +907,13 @@
         <v>3000</v>
       </c>
       <c r="K4">
-        <v>586.17</v>
+        <v>586.16999999999996</v>
       </c>
       <c r="L4" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -915,7 +951,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -953,7 +989,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -991,7 +1027,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1029,7 +1065,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1067,7 +1103,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1099,13 +1135,13 @@
         <v>9000</v>
       </c>
       <c r="K10">
-        <v>1109.16</v>
+        <v>1109.1600000000001</v>
       </c>
       <c r="L10" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1143,7 +1179,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1181,7 +1217,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1219,7 +1255,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1257,7 +1293,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1295,7 +1331,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1333,7 +1369,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1371,7 +1407,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1409,7 +1445,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1447,7 +1483,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1485,7 +1521,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1517,7 +1553,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1549,7 +1585,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1581,7 +1617,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1613,7 +1649,7 @@
         <v>23000</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1645,7 +1681,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1677,7 +1713,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1709,7 +1745,7 @@
         <v>26000</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1741,7 +1777,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1773,7 +1809,7 @@
         <v>28000</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1805,7 +1841,7 @@
         <v>29000</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1837,7 +1873,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1875,7 +1911,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1913,7 +1949,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1951,7 +1987,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1989,7 +2025,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2021,13 +2057,13 @@
         <v>5000</v>
       </c>
       <c r="K36">
-        <v>584.0599999999999</v>
+        <v>584.05999999999995</v>
       </c>
       <c r="L36" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2065,7 +2101,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2103,7 +2139,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2141,7 +2177,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2179,7 +2215,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2211,13 +2247,13 @@
         <v>10000</v>
       </c>
       <c r="K41">
-        <v>940.6799999999999</v>
+        <v>940.68</v>
       </c>
       <c r="L41" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2255,7 +2291,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2287,13 +2323,13 @@
         <v>12000</v>
       </c>
       <c r="K43">
-        <v>960.5700000000001</v>
+        <v>960.57</v>
       </c>
       <c r="L43" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2325,13 +2361,13 @@
         <v>13000</v>
       </c>
       <c r="K44">
-        <v>969.9299999999999</v>
+        <v>969.93</v>
       </c>
       <c r="L44" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2369,7 +2405,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2407,7 +2443,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2445,7 +2481,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -2483,7 +2519,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -2521,7 +2557,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2559,7 +2595,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -2591,7 +2627,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -2623,7 +2659,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -2655,7 +2691,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -2687,7 +2723,7 @@
         <v>23000</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -2719,7 +2755,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -2751,7 +2787,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -2783,7 +2819,7 @@
         <v>26000</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -2815,7 +2851,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -2847,7 +2883,7 @@
         <v>28000</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -2879,7 +2915,7 @@
         <v>29000</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -2911,7 +2947,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -2943,13 +2979,13 @@
         <v>1000</v>
       </c>
       <c r="K62">
-        <v>533.3099999999999</v>
+        <v>533.30999999999995</v>
       </c>
       <c r="L62" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -2987,7 +3023,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -3025,7 +3061,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -3063,7 +3099,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -3095,13 +3131,13 @@
         <v>5000</v>
       </c>
       <c r="K66">
-        <v>927.8099999999999</v>
+        <v>927.81</v>
       </c>
       <c r="L66" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -3139,7 +3175,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -3177,7 +3213,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -3215,7 +3251,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -3253,7 +3289,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -3291,7 +3327,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -3329,7 +3365,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -3367,7 +3403,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -3405,7 +3441,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -3443,7 +3479,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -3481,7 +3517,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -3519,7 +3555,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -3557,7 +3593,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -3595,7 +3631,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -3633,7 +3669,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="81" spans="1:12">
+    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -3665,7 +3701,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="82" spans="1:12">
+    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -3697,7 +3733,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="83" spans="1:12">
+    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -3729,7 +3765,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="84" spans="1:12">
+    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -3761,7 +3797,7 @@
         <v>23000</v>
       </c>
     </row>
-    <row r="85" spans="1:12">
+    <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -3793,7 +3829,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="86" spans="1:12">
+    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -3825,7 +3861,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="87" spans="1:12">
+    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -3857,7 +3893,7 @@
         <v>26000</v>
       </c>
     </row>
-    <row r="88" spans="1:12">
+    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -3889,7 +3925,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="89" spans="1:12">
+    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -3921,7 +3957,7 @@
         <v>28000</v>
       </c>
     </row>
-    <row r="90" spans="1:12">
+    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -3953,7 +3989,7 @@
         <v>29000</v>
       </c>
     </row>
-    <row r="91" spans="1:12">
+    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -3985,7 +4021,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="92" spans="1:12">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -4023,7 +4059,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="93" spans="1:12">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -4061,7 +4097,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="94" spans="1:12">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -4099,7 +4135,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="95" spans="1:12">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -4137,7 +4173,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="96" spans="1:12">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -4175,7 +4211,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="97" spans="1:12">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -4213,7 +4249,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="98" spans="1:12">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -4245,13 +4281,13 @@
         <v>7000</v>
       </c>
       <c r="K98">
-        <v>625.95</v>
+        <v>625.95000000000005</v>
       </c>
       <c r="L98" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="99" spans="1:12">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -4289,7 +4325,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="100" spans="1:12">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -4327,7 +4363,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="101" spans="1:12">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -4365,7 +4401,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="102" spans="1:12">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -4403,7 +4439,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="103" spans="1:12">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -4441,7 +4477,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="104" spans="1:12">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -4479,7 +4515,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="105" spans="1:12">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -4511,13 +4547,13 @@
         <v>14000</v>
       </c>
       <c r="K105">
-        <v>944.1900000000001</v>
+        <v>944.19</v>
       </c>
       <c r="L105" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="106" spans="1:12">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -4555,7 +4591,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="107" spans="1:12">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -4593,7 +4629,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="108" spans="1:12">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -4631,7 +4667,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="109" spans="1:12">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -4663,13 +4699,13 @@
         <v>18000</v>
       </c>
       <c r="K109">
-        <v>1026.09</v>
+        <v>1026.0899999999999</v>
       </c>
       <c r="L109" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="110" spans="1:12">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -4707,7 +4743,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="111" spans="1:12">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -4739,7 +4775,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="112" spans="1:12">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -4771,7 +4807,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="113" spans="1:12">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -4803,7 +4839,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="114" spans="1:12">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -4835,7 +4871,7 @@
         <v>23000</v>
       </c>
     </row>
-    <row r="115" spans="1:12">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -4867,7 +4903,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="116" spans="1:12">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -4899,7 +4935,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="117" spans="1:12">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -4931,7 +4967,7 @@
         <v>26000</v>
       </c>
     </row>
-    <row r="118" spans="1:12">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -4963,7 +4999,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="119" spans="1:12">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -4995,7 +5031,7 @@
         <v>28000</v>
       </c>
     </row>
-    <row r="120" spans="1:12">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -5027,7 +5063,7 @@
         <v>29000</v>
       </c>
     </row>
-    <row r="121" spans="1:12">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -5059,7 +5095,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="122" spans="1:12">
+    <row r="122" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -5097,7 +5133,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="123" spans="1:12">
+    <row r="123" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -5135,7 +5171,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="124" spans="1:12">
+    <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -5173,7 +5209,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="125" spans="1:12">
+    <row r="125" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -5211,7 +5247,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="126" spans="1:12">
+    <row r="126" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -5249,7 +5285,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="127" spans="1:12">
+    <row r="127" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -5287,7 +5323,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="128" spans="1:12">
+    <row r="128" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -5325,7 +5361,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="129" spans="1:12">
+    <row r="129" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -5363,7 +5399,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="130" spans="1:12">
+    <row r="130" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -5395,13 +5431,13 @@
         <v>9000</v>
       </c>
       <c r="K130">
-        <v>726.5700000000001</v>
+        <v>726.57</v>
       </c>
       <c r="L130" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="131" spans="1:12">
+    <row r="131" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -5439,7 +5475,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="132" spans="1:12">
+    <row r="132" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -5477,7 +5513,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="133" spans="1:12">
+    <row r="133" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -5515,7 +5551,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="134" spans="1:12">
+    <row r="134" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -5553,7 +5589,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="135" spans="1:12">
+    <row r="135" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -5591,7 +5627,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="136" spans="1:12">
+    <row r="136" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -5629,7 +5665,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="137" spans="1:12">
+    <row r="137" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -5667,7 +5703,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="138" spans="1:12">
+    <row r="138" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -5705,7 +5741,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="139" spans="1:12">
+    <row r="139" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -5737,13 +5773,13 @@
         <v>18000</v>
       </c>
       <c r="K139">
-        <v>1088.1</v>
+        <v>1088.0999999999999</v>
       </c>
       <c r="L139" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="140" spans="1:12">
+    <row r="140" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -5775,13 +5811,13 @@
         <v>19000</v>
       </c>
       <c r="K140">
-        <v>1102.14</v>
+        <v>1102.1400000000001</v>
       </c>
       <c r="L140" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="141" spans="1:12">
+    <row r="141" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -5813,7 +5849,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="142" spans="1:12">
+    <row r="142" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -5845,7 +5881,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="143" spans="1:12">
+    <row r="143" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -5877,7 +5913,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="144" spans="1:12">
+    <row r="144" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -5909,7 +5945,7 @@
         <v>23000</v>
       </c>
     </row>
-    <row r="145" spans="1:12">
+    <row r="145" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -5941,7 +5977,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="146" spans="1:12">
+    <row r="146" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -5973,7 +6009,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="147" spans="1:12">
+    <row r="147" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -6005,7 +6041,7 @@
         <v>26000</v>
       </c>
     </row>
-    <row r="148" spans="1:12">
+    <row r="148" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -6037,7 +6073,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="149" spans="1:12">
+    <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -6069,7 +6105,7 @@
         <v>28000</v>
       </c>
     </row>
-    <row r="150" spans="1:12">
+    <row r="150" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -6101,7 +6137,7 @@
         <v>29000</v>
       </c>
     </row>
-    <row r="151" spans="1:12">
+    <row r="151" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -6133,7 +6169,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="152" spans="1:12">
+    <row r="152" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -6171,7 +6207,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="153" spans="1:12">
+    <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -6209,7 +6245,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="154" spans="1:12">
+    <row r="154" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -6247,7 +6283,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="155" spans="1:12">
+    <row r="155" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -6279,13 +6315,13 @@
         <v>4000</v>
       </c>
       <c r="K155">
-        <v>299.03</v>
+        <v>299.02999999999997</v>
       </c>
       <c r="L155" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="156" spans="1:12">
+    <row r="156" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -6323,7 +6359,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="157" spans="1:12">
+    <row r="157" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -6361,7 +6397,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="158" spans="1:12">
+    <row r="158" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -6393,13 +6429,13 @@
         <v>7000</v>
       </c>
       <c r="K158">
-        <v>631.8</v>
+        <v>631.79999999999995</v>
       </c>
       <c r="L158" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="159" spans="1:12">
+    <row r="159" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -6437,7 +6473,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="160" spans="1:12">
+    <row r="160" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -6469,13 +6505,13 @@
         <v>9000</v>
       </c>
       <c r="K160">
-        <v>651.6900000000001</v>
+        <v>651.69000000000005</v>
       </c>
       <c r="L160" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="161" spans="1:12">
+    <row r="161" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -6513,7 +6549,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="162" spans="1:12">
+    <row r="162" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -6551,7 +6587,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="163" spans="1:12">
+    <row r="163" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -6589,7 +6625,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="164" spans="1:12">
+    <row r="164" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -6627,7 +6663,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="165" spans="1:12">
+    <row r="165" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -6659,13 +6695,13 @@
         <v>14000</v>
       </c>
       <c r="K165">
-        <v>885.6900000000001</v>
+        <v>885.69</v>
       </c>
       <c r="L165" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="166" spans="1:12">
+    <row r="166" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -6703,7 +6739,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="167" spans="1:12">
+    <row r="167" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -6741,7 +6777,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="168" spans="1:12">
+    <row r="168" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -6779,7 +6815,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="169" spans="1:12">
+    <row r="169" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -6817,7 +6853,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="170" spans="1:12">
+    <row r="170" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -6849,7 +6885,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="171" spans="1:12">
+    <row r="171" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -6881,7 +6917,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="172" spans="1:12">
+    <row r="172" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -6913,7 +6949,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="173" spans="1:12">
+    <row r="173" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -6945,7 +6981,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="174" spans="1:12">
+    <row r="174" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -6977,7 +7013,7 @@
         <v>23000</v>
       </c>
     </row>
-    <row r="175" spans="1:12">
+    <row r="175" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -7009,7 +7045,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="176" spans="1:12">
+    <row r="176" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -7041,7 +7077,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="177" spans="1:12">
+    <row r="177" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -7073,7 +7109,7 @@
         <v>26000</v>
       </c>
     </row>
-    <row r="178" spans="1:12">
+    <row r="178" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -7105,7 +7141,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="179" spans="1:12">
+    <row r="179" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -7137,7 +7173,7 @@
         <v>28000</v>
       </c>
     </row>
-    <row r="180" spans="1:12">
+    <row r="180" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -7169,7 +7205,7 @@
         <v>29000</v>
       </c>
     </row>
-    <row r="181" spans="1:12">
+    <row r="181" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -7201,7 +7237,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="182" spans="1:12">
+    <row r="182" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -7239,7 +7275,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="183" spans="1:12">
+    <row r="183" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -7277,7 +7313,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="184" spans="1:12">
+    <row r="184" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -7315,7 +7351,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="185" spans="1:12">
+    <row r="185" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -7353,7 +7389,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="186" spans="1:12">
+    <row r="186" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -7391,7 +7427,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="187" spans="1:12">
+    <row r="187" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -7429,7 +7465,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="188" spans="1:12">
+    <row r="188" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -7467,7 +7503,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="189" spans="1:12">
+    <row r="189" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -7505,7 +7541,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="190" spans="1:12">
+    <row r="190" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -7543,7 +7579,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="191" spans="1:12">
+    <row r="191" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -7581,7 +7617,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="192" spans="1:12">
+    <row r="192" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -7619,7 +7655,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="193" spans="1:12">
+    <row r="193" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -7657,7 +7693,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="194" spans="1:12">
+    <row r="194" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -7695,7 +7731,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="195" spans="1:12">
+    <row r="195" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -7733,7 +7769,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="196" spans="1:12">
+    <row r="196" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -7771,7 +7807,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="197" spans="1:12">
+    <row r="197" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -7809,7 +7845,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="198" spans="1:12">
+    <row r="198" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -7847,7 +7883,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="199" spans="1:12">
+    <row r="199" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -7885,7 +7921,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="200" spans="1:12">
+    <row r="200" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -7923,7 +7959,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="201" spans="1:12">
+    <row r="201" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -7955,7 +7991,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="202" spans="1:12">
+    <row r="202" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -7987,7 +8023,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="203" spans="1:12">
+    <row r="203" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -8019,7 +8055,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="204" spans="1:12">
+    <row r="204" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -8051,7 +8087,7 @@
         <v>23000</v>
       </c>
     </row>
-    <row r="205" spans="1:12">
+    <row r="205" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -8083,7 +8119,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="206" spans="1:12">
+    <row r="206" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -8115,7 +8151,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="207" spans="1:12">
+    <row r="207" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -8147,7 +8183,7 @@
         <v>26000</v>
       </c>
     </row>
-    <row r="208" spans="1:12">
+    <row r="208" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -8179,7 +8215,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="209" spans="1:12">
+    <row r="209" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -8211,7 +8247,7 @@
         <v>28000</v>
       </c>
     </row>
-    <row r="210" spans="1:12">
+    <row r="210" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -8243,7 +8279,7 @@
         <v>29000</v>
       </c>
     </row>
-    <row r="211" spans="1:12">
+    <row r="211" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -8275,7 +8311,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="212" spans="1:12">
+    <row r="212" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -8313,7 +8349,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="213" spans="1:12">
+    <row r="213" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -8351,7 +8387,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="214" spans="1:12">
+    <row r="214" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -8389,7 +8425,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="215" spans="1:12">
+    <row r="215" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -8427,7 +8463,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="216" spans="1:12">
+    <row r="216" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -8465,7 +8501,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="217" spans="1:12">
+    <row r="217" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -8503,7 +8539,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="218" spans="1:12">
+    <row r="218" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -8541,7 +8577,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="219" spans="1:12">
+    <row r="219" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -8573,13 +8609,13 @@
         <v>8000</v>
       </c>
       <c r="K219">
-        <v>931.3200000000001</v>
+        <v>931.32</v>
       </c>
       <c r="L219" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="220" spans="1:12">
+    <row r="220" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -8617,7 +8653,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="221" spans="1:12">
+    <row r="221" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -8649,13 +8685,13 @@
         <v>10000</v>
       </c>
       <c r="K221">
-        <v>1241.37</v>
+        <v>1241.3699999999999</v>
       </c>
       <c r="L221" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="222" spans="1:12">
+    <row r="222" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -8693,7 +8729,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="223" spans="1:12">
+    <row r="223" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -8731,7 +8767,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="224" spans="1:12">
+    <row r="224" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -8769,7 +8805,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="225" spans="1:12">
+    <row r="225" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -8807,7 +8843,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="226" spans="1:12">
+    <row r="226" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -8845,7 +8881,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="227" spans="1:12">
+    <row r="227" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -8883,7 +8919,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="228" spans="1:12">
+    <row r="228" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -8921,7 +8957,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="229" spans="1:12">
+    <row r="229" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -8959,7 +8995,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="230" spans="1:12">
+    <row r="230" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -8997,7 +9033,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="231" spans="1:12">
+    <row r="231" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -9029,7 +9065,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="232" spans="1:12">
+    <row r="232" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -9061,7 +9097,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="233" spans="1:12">
+    <row r="233" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -9093,7 +9129,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="234" spans="1:12">
+    <row r="234" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -9125,7 +9161,7 @@
         <v>23000</v>
       </c>
     </row>
-    <row r="235" spans="1:12">
+    <row r="235" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -9157,7 +9193,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="236" spans="1:12">
+    <row r="236" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -9189,7 +9225,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="237" spans="1:12">
+    <row r="237" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -9221,7 +9257,7 @@
         <v>26000</v>
       </c>
     </row>
-    <row r="238" spans="1:12">
+    <row r="238" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -9253,7 +9289,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="239" spans="1:12">
+    <row r="239" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -9285,7 +9321,7 @@
         <v>28000</v>
       </c>
     </row>
-    <row r="240" spans="1:12">
+    <row r="240" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -9317,7 +9353,7 @@
         <v>29000</v>
       </c>
     </row>
-    <row r="241" spans="1:12">
+    <row r="241" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -9349,7 +9385,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="242" spans="1:12">
+    <row r="242" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -9387,7 +9423,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="243" spans="1:12">
+    <row r="243" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -9425,7 +9461,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="244" spans="1:12">
+    <row r="244" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -9463,7 +9499,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="245" spans="1:12">
+    <row r="245" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -9495,13 +9531,13 @@
         <v>4000</v>
       </c>
       <c r="K245">
-        <v>514.8</v>
+        <v>514.79999999999995</v>
       </c>
       <c r="L245" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="246" spans="1:12">
+    <row r="246" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -9539,7 +9575,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="247" spans="1:12">
+    <row r="247" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -9571,13 +9607,13 @@
         <v>6000</v>
       </c>
       <c r="K247">
-        <v>768.6900000000001</v>
+        <v>768.69</v>
       </c>
       <c r="L247" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="248" spans="1:12">
+    <row r="248" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -9609,13 +9645,13 @@
         <v>7000</v>
       </c>
       <c r="K248">
-        <v>794.4299999999999</v>
+        <v>794.43</v>
       </c>
       <c r="L248" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="249" spans="1:12">
+    <row r="249" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -9653,7 +9689,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="250" spans="1:12">
+    <row r="250" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -9691,7 +9727,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="251" spans="1:12">
+    <row r="251" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -9723,13 +9759,13 @@
         <v>10000</v>
       </c>
       <c r="K251">
-        <v>1124.37</v>
+        <v>1124.3699999999999</v>
       </c>
       <c r="L251" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="252" spans="1:12">
+    <row r="252" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -9767,7 +9803,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="253" spans="1:12">
+    <row r="253" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -9805,7 +9841,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="254" spans="1:12">
+    <row r="254" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -9843,7 +9879,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="255" spans="1:12">
+    <row r="255" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -9875,13 +9911,13 @@
         <v>14000</v>
       </c>
       <c r="K255">
-        <v>1299.87</v>
+        <v>1299.8699999999999</v>
       </c>
       <c r="L255" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="256" spans="1:12">
+    <row r="256" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -9919,7 +9955,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="257" spans="1:12">
+    <row r="257" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -9957,7 +9993,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="258" spans="1:12">
+    <row r="258" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -9995,7 +10031,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="259" spans="1:12">
+    <row r="259" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -10033,7 +10069,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="260" spans="1:12">
+    <row r="260" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -10071,7 +10107,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="261" spans="1:12">
+    <row r="261" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -10103,7 +10139,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="262" spans="1:12">
+    <row r="262" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -10135,7 +10171,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="263" spans="1:12">
+    <row r="263" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -10167,7 +10203,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="264" spans="1:12">
+    <row r="264" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -10199,7 +10235,7 @@
         <v>23000</v>
       </c>
     </row>
-    <row r="265" spans="1:12">
+    <row r="265" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -10231,7 +10267,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="266" spans="1:12">
+    <row r="266" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -10263,7 +10299,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="267" spans="1:12">
+    <row r="267" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -10295,7 +10331,7 @@
         <v>26000</v>
       </c>
     </row>
-    <row r="268" spans="1:12">
+    <row r="268" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -10327,7 +10363,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="269" spans="1:12">
+    <row r="269" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -10359,7 +10395,7 @@
         <v>28000</v>
       </c>
     </row>
-    <row r="270" spans="1:12">
+    <row r="270" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -10391,7 +10427,7 @@
         <v>29000</v>
       </c>
     </row>
-    <row r="271" spans="1:12">
+    <row r="271" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -10423,7 +10459,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="272" spans="1:12">
+    <row r="272" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -10455,13 +10491,13 @@
         <v>1000</v>
       </c>
       <c r="K272">
-        <v>309.59</v>
+        <v>309.58999999999997</v>
       </c>
       <c r="L272" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="273" spans="1:12">
+    <row r="273" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -10499,7 +10535,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="274" spans="1:12">
+    <row r="274" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -10537,7 +10573,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="275" spans="1:12">
+    <row r="275" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -10575,7 +10611,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="276" spans="1:12">
+    <row r="276" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -10613,7 +10649,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="277" spans="1:12">
+    <row r="277" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -10651,7 +10687,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="278" spans="1:12">
+    <row r="278" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -10689,7 +10725,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="279" spans="1:12">
+    <row r="279" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -10727,7 +10763,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="280" spans="1:12">
+    <row r="280" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -10765,7 +10801,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="281" spans="1:12">
+    <row r="281" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -10803,7 +10839,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="282" spans="1:12">
+    <row r="282" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -10841,7 +10877,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="283" spans="1:12">
+    <row r="283" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -10879,7 +10915,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="284" spans="1:12">
+    <row r="284" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -10917,7 +10953,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="285" spans="1:12">
+    <row r="285" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -10955,7 +10991,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="286" spans="1:12">
+    <row r="286" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -10993,7 +11029,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="287" spans="1:12">
+    <row r="287" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -11031,7 +11067,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="288" spans="1:12">
+    <row r="288" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -11069,7 +11105,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="289" spans="1:12">
+    <row r="289" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -11101,13 +11137,13 @@
         <v>18000</v>
       </c>
       <c r="K289">
-        <v>989.8200000000001</v>
+        <v>989.82</v>
       </c>
       <c r="L289" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="290" spans="1:12">
+    <row r="290" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>288</v>
       </c>
@@ -11145,7 +11181,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="291" spans="1:12">
+    <row r="291" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -11177,7 +11213,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="292" spans="1:12">
+    <row r="292" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -11209,7 +11245,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="293" spans="1:12">
+    <row r="293" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -11241,7 +11277,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="294" spans="1:12">
+    <row r="294" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -11273,7 +11309,7 @@
         <v>23000</v>
       </c>
     </row>
-    <row r="295" spans="1:12">
+    <row r="295" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>293</v>
       </c>
@@ -11305,7 +11341,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="296" spans="1:12">
+    <row r="296" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>294</v>
       </c>
@@ -11337,7 +11373,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="297" spans="1:12">
+    <row r="297" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -11369,7 +11405,7 @@
         <v>26000</v>
       </c>
     </row>
-    <row r="298" spans="1:12">
+    <row r="298" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>296</v>
       </c>
@@ -11401,7 +11437,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="299" spans="1:12">
+    <row r="299" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -11433,7 +11469,7 @@
         <v>28000</v>
       </c>
     </row>
-    <row r="300" spans="1:12">
+    <row r="300" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -11465,7 +11501,7 @@
         <v>29000</v>
       </c>
     </row>
-    <row r="301" spans="1:12">
+    <row r="301" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>299</v>
       </c>
@@ -11497,7 +11533,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="302" spans="1:12">
+    <row r="302" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>300</v>
       </c>
@@ -11535,7 +11571,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="303" spans="1:12">
+    <row r="303" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>301</v>
       </c>
@@ -11573,7 +11609,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="304" spans="1:12">
+    <row r="304" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>302</v>
       </c>
@@ -11611,7 +11647,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="305" spans="1:12">
+    <row r="305" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>303</v>
       </c>
@@ -11649,7 +11685,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="306" spans="1:12">
+    <row r="306" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>304</v>
       </c>
@@ -11687,7 +11723,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="307" spans="1:12">
+    <row r="307" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>305</v>
       </c>
@@ -11719,13 +11755,13 @@
         <v>6000</v>
       </c>
       <c r="K307">
-        <v>649.42</v>
+        <v>649.41999999999996</v>
       </c>
       <c r="L307" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="308" spans="1:12">
+    <row r="308" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>306</v>
       </c>
@@ -11763,7 +11799,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="309" spans="1:12">
+    <row r="309" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>307</v>
       </c>
@@ -11801,7 +11837,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="310" spans="1:12">
+    <row r="310" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>308</v>
       </c>
@@ -11839,7 +11875,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="311" spans="1:12">
+    <row r="311" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>309</v>
       </c>
@@ -11871,13 +11907,13 @@
         <v>10000</v>
       </c>
       <c r="K311">
-        <v>1105.65</v>
+        <v>1105.6500000000001</v>
       </c>
       <c r="L311" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="312" spans="1:12">
+    <row r="312" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>310</v>
       </c>
@@ -11915,7 +11951,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="313" spans="1:12">
+    <row r="313" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>311</v>
       </c>
@@ -11953,7 +11989,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="314" spans="1:12">
+    <row r="314" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>312</v>
       </c>
@@ -11991,7 +12027,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="315" spans="1:12">
+    <row r="315" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>313</v>
       </c>
@@ -12029,7 +12065,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="316" spans="1:12">
+    <row r="316" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>314</v>
       </c>
@@ -12067,7 +12103,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="317" spans="1:12">
+    <row r="317" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>315</v>
       </c>
@@ -12105,7 +12141,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="318" spans="1:12">
+    <row r="318" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>316</v>
       </c>
@@ -12143,7 +12179,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="319" spans="1:12">
+    <row r="319" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>317</v>
       </c>
@@ -12181,7 +12217,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="320" spans="1:12">
+    <row r="320" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>318</v>
       </c>
@@ -12219,7 +12255,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="321" spans="1:12">
+    <row r="321" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>319</v>
       </c>
@@ -12251,7 +12287,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="322" spans="1:12">
+    <row r="322" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>320</v>
       </c>
@@ -12283,7 +12319,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="323" spans="1:12">
+    <row r="323" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>321</v>
       </c>
@@ -12315,7 +12351,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="324" spans="1:12">
+    <row r="324" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>322</v>
       </c>
@@ -12347,7 +12383,7 @@
         <v>23000</v>
       </c>
     </row>
-    <row r="325" spans="1:12">
+    <row r="325" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>323</v>
       </c>
@@ -12379,7 +12415,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="326" spans="1:12">
+    <row r="326" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>324</v>
       </c>
@@ -12411,7 +12447,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="327" spans="1:12">
+    <row r="327" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>325</v>
       </c>
@@ -12443,7 +12479,7 @@
         <v>26000</v>
       </c>
     </row>
-    <row r="328" spans="1:12">
+    <row r="328" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>326</v>
       </c>
@@ -12475,7 +12511,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="329" spans="1:12">
+    <row r="329" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>327</v>
       </c>
@@ -12507,7 +12543,7 @@
         <v>28000</v>
       </c>
     </row>
-    <row r="330" spans="1:12">
+    <row r="330" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>328</v>
       </c>
@@ -12539,7 +12575,7 @@
         <v>29000</v>
       </c>
     </row>
-    <row r="331" spans="1:12">
+    <row r="331" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>329</v>
       </c>
@@ -12571,7 +12607,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="332" spans="1:12">
+    <row r="332" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>330</v>
       </c>
@@ -12609,7 +12645,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="333" spans="1:12">
+    <row r="333" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>331</v>
       </c>
@@ -12641,13 +12677,13 @@
         <v>2000</v>
       </c>
       <c r="K333">
-        <v>282.66</v>
+        <v>282.66000000000003</v>
       </c>
       <c r="L333" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="334" spans="1:12">
+    <row r="334" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <v>332</v>
       </c>
@@ -12685,7 +12721,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="335" spans="1:12">
+    <row r="335" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>333</v>
       </c>
@@ -12723,7 +12759,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="336" spans="1:12">
+    <row r="336" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>334</v>
       </c>
@@ -12761,7 +12797,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="337" spans="1:12">
+    <row r="337" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>335</v>
       </c>
@@ -12799,7 +12835,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="338" spans="1:12">
+    <row r="338" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>336</v>
       </c>
@@ -12837,7 +12873,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="339" spans="1:12">
+    <row r="339" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>337</v>
       </c>
@@ -12875,7 +12911,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="340" spans="1:12">
+    <row r="340" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>338</v>
       </c>
@@ -12913,7 +12949,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="341" spans="1:12">
+    <row r="341" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>339</v>
       </c>
@@ -12951,7 +12987,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="342" spans="1:12">
+    <row r="342" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>340</v>
       </c>
@@ -12983,13 +13019,13 @@
         <v>11000</v>
       </c>
       <c r="K342">
-        <v>554.58</v>
+        <v>554.58000000000004</v>
       </c>
       <c r="L342" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="343" spans="1:12">
+    <row r="343" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>341</v>
       </c>
@@ -13021,13 +13057,13 @@
         <v>12000</v>
       </c>
       <c r="K343">
-        <v>560.4299999999999</v>
+        <v>560.42999999999995</v>
       </c>
       <c r="L343" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="344" spans="1:12">
+    <row r="344" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>342</v>
       </c>
@@ -13065,7 +13101,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="345" spans="1:12">
+    <row r="345" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>343</v>
       </c>
@@ -13103,7 +13139,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="346" spans="1:12">
+    <row r="346" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>344</v>
       </c>
@@ -13141,7 +13177,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="347" spans="1:12">
+    <row r="347" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>345</v>
       </c>
@@ -13179,7 +13215,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="348" spans="1:12">
+    <row r="348" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>346</v>
       </c>
@@ -13217,7 +13253,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="349" spans="1:12">
+    <row r="349" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>347</v>
       </c>
@@ -13255,7 +13291,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="350" spans="1:12">
+    <row r="350" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>348</v>
       </c>
@@ -13293,7 +13329,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="351" spans="1:12">
+    <row r="351" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>349</v>
       </c>
@@ -13325,7 +13361,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="352" spans="1:12">
+    <row r="352" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <v>350</v>
       </c>
@@ -13357,7 +13393,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="353" spans="1:12">
+    <row r="353" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>351</v>
       </c>
@@ -13389,7 +13425,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="354" spans="1:12">
+    <row r="354" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>352</v>
       </c>
@@ -13421,7 +13457,7 @@
         <v>23000</v>
       </c>
     </row>
-    <row r="355" spans="1:12">
+    <row r="355" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>353</v>
       </c>
@@ -13453,7 +13489,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="356" spans="1:12">
+    <row r="356" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>354</v>
       </c>
@@ -13485,7 +13521,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="357" spans="1:12">
+    <row r="357" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>355</v>
       </c>
@@ -13517,7 +13553,7 @@
         <v>26000</v>
       </c>
     </row>
-    <row r="358" spans="1:12">
+    <row r="358" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>356</v>
       </c>
@@ -13549,7 +13585,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="359" spans="1:12">
+    <row r="359" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>357</v>
       </c>
@@ -13581,7 +13617,7 @@
         <v>28000</v>
       </c>
     </row>
-    <row r="360" spans="1:12">
+    <row r="360" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>358</v>
       </c>
@@ -13613,7 +13649,7 @@
         <v>29000</v>
       </c>
     </row>
-    <row r="361" spans="1:12">
+    <row r="361" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <v>359</v>
       </c>
@@ -13645,7 +13681,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="362" spans="1:12">
+    <row r="362" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <v>360</v>
       </c>
@@ -13683,7 +13719,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="363" spans="1:12">
+    <row r="363" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <v>361</v>
       </c>
@@ -13721,7 +13757,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="364" spans="1:12">
+    <row r="364" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <v>362</v>
       </c>
@@ -13759,7 +13795,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="365" spans="1:12">
+    <row r="365" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <v>363</v>
       </c>
@@ -13797,7 +13833,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="366" spans="1:12">
+    <row r="366" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <v>364</v>
       </c>
@@ -13829,13 +13865,13 @@
         <v>5000</v>
       </c>
       <c r="K366">
-        <v>581.08</v>
+        <v>581.08000000000004</v>
       </c>
       <c r="L366" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="367" spans="1:12">
+    <row r="367" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
         <v>365</v>
       </c>
@@ -13873,7 +13909,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="368" spans="1:12">
+    <row r="368" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
         <v>366</v>
       </c>
@@ -13905,13 +13941,13 @@
         <v>7000</v>
       </c>
       <c r="K368">
-        <v>596.7</v>
+        <v>596.70000000000005</v>
       </c>
       <c r="L368" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="369" spans="1:12">
+    <row r="369" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <v>367</v>
       </c>
@@ -13949,7 +13985,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="370" spans="1:12">
+    <row r="370" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
         <v>368</v>
       </c>
@@ -13981,13 +14017,13 @@
         <v>9000</v>
       </c>
       <c r="K370">
-        <v>606.0599999999999</v>
+        <v>606.05999999999995</v>
       </c>
       <c r="L370" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="371" spans="1:12">
+    <row r="371" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
         <v>369</v>
       </c>
@@ -14025,7 +14061,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="372" spans="1:12">
+    <row r="372" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
         <v>370</v>
       </c>
@@ -14063,7 +14099,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="373" spans="1:12">
+    <row r="373" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
         <v>371</v>
       </c>
@@ -14101,7 +14137,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="374" spans="1:12">
+    <row r="374" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
         <v>372</v>
       </c>
@@ -14133,13 +14169,13 @@
         <v>13000</v>
       </c>
       <c r="K374">
-        <v>810.8099999999999</v>
+        <v>810.81</v>
       </c>
       <c r="L374" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="375" spans="1:12">
+    <row r="375" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
         <v>373</v>
       </c>
@@ -14177,7 +14213,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="376" spans="1:12">
+    <row r="376" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
         <v>374</v>
       </c>
@@ -14215,7 +14251,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="377" spans="1:12">
+    <row r="377" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
         <v>375</v>
       </c>
@@ -14253,7 +14289,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="378" spans="1:12">
+    <row r="378" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
         <v>376</v>
       </c>
@@ -14291,7 +14327,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="379" spans="1:12">
+    <row r="379" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
         <v>377</v>
       </c>
@@ -14329,7 +14365,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="380" spans="1:12">
+    <row r="380" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
         <v>378</v>
       </c>
@@ -14367,7 +14403,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="381" spans="1:12">
+    <row r="381" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
         <v>379</v>
       </c>
@@ -14399,7 +14435,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="382" spans="1:12">
+    <row r="382" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
         <v>380</v>
       </c>
@@ -14431,7 +14467,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="383" spans="1:12">
+    <row r="383" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
         <v>381</v>
       </c>
@@ -14463,7 +14499,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="384" spans="1:12">
+    <row r="384" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
         <v>382</v>
       </c>
@@ -14495,7 +14531,7 @@
         <v>23000</v>
       </c>
     </row>
-    <row r="385" spans="1:12">
+    <row r="385" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
         <v>383</v>
       </c>
@@ -14527,7 +14563,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="386" spans="1:12">
+    <row r="386" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A386" s="1">
         <v>384</v>
       </c>
@@ -14559,7 +14595,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="387" spans="1:12">
+    <row r="387" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
         <v>385</v>
       </c>
@@ -14591,7 +14627,7 @@
         <v>26000</v>
       </c>
     </row>
-    <row r="388" spans="1:12">
+    <row r="388" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
         <v>386</v>
       </c>
@@ -14623,7 +14659,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="389" spans="1:12">
+    <row r="389" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A389" s="1">
         <v>387</v>
       </c>
@@ -14655,7 +14691,7 @@
         <v>28000</v>
       </c>
     </row>
-    <row r="390" spans="1:12">
+    <row r="390" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
         <v>388</v>
       </c>
@@ -14687,7 +14723,7 @@
         <v>29000</v>
       </c>
     </row>
-    <row r="391" spans="1:12">
+    <row r="391" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
         <v>389</v>
       </c>
@@ -14719,7 +14755,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="392" spans="1:12">
+    <row r="392" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392" s="1">
         <v>390</v>
       </c>
@@ -14751,13 +14787,13 @@
         <v>1000</v>
       </c>
       <c r="K392">
-        <v>611.45</v>
+        <v>611.45000000000005</v>
       </c>
       <c r="L392" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="393" spans="1:12">
+    <row r="393" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
         <v>391</v>
       </c>
@@ -14795,7 +14831,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="394" spans="1:12">
+    <row r="394" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394" s="1">
         <v>392</v>
       </c>
@@ -14833,7 +14869,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="395" spans="1:12">
+    <row r="395" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A395" s="1">
         <v>393</v>
       </c>
@@ -14871,7 +14907,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="396" spans="1:12">
+    <row r="396" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A396" s="1">
         <v>394</v>
       </c>
@@ -14909,7 +14945,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="397" spans="1:12">
+    <row r="397" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A397" s="1">
         <v>395</v>
       </c>
@@ -14947,7 +14983,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="398" spans="1:12">
+    <row r="398" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A398" s="1">
         <v>396</v>
       </c>
@@ -14985,7 +15021,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="399" spans="1:12">
+    <row r="399" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
         <v>397</v>
       </c>
@@ -15023,7 +15059,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="400" spans="1:12">
+    <row r="400" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A400" s="1">
         <v>398</v>
       </c>
@@ -15061,7 +15097,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="401" spans="1:12">
+    <row r="401" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
         <v>399</v>
       </c>
@@ -15099,7 +15135,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="402" spans="1:12">
+    <row r="402" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A402" s="1">
         <v>400</v>
       </c>
@@ -15137,7 +15173,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="403" spans="1:12">
+    <row r="403" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A403" s="1">
         <v>401</v>
       </c>
@@ -15175,7 +15211,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="404" spans="1:12">
+    <row r="404" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A404" s="1">
         <v>402</v>
       </c>
@@ -15213,7 +15249,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="405" spans="1:12">
+    <row r="405" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A405" s="1">
         <v>403</v>
       </c>
@@ -15251,7 +15287,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="406" spans="1:12">
+    <row r="406" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A406" s="1">
         <v>404</v>
       </c>
@@ -15289,7 +15325,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="407" spans="1:12">
+    <row r="407" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A407" s="1">
         <v>405</v>
       </c>
@@ -15327,7 +15363,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="408" spans="1:12">
+    <row r="408" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A408" s="1">
         <v>406</v>
       </c>
@@ -15365,7 +15401,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="409" spans="1:12">
+    <row r="409" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A409" s="1">
         <v>407</v>
       </c>
@@ -15403,7 +15439,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="410" spans="1:12">
+    <row r="410" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A410" s="1">
         <v>408</v>
       </c>
@@ -15441,7 +15477,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="411" spans="1:12">
+    <row r="411" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A411" s="1">
         <v>409</v>
       </c>
@@ -15473,7 +15509,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="412" spans="1:12">
+    <row r="412" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A412" s="1">
         <v>410</v>
       </c>
@@ -15505,7 +15541,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="413" spans="1:12">
+    <row r="413" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A413" s="1">
         <v>411</v>
       </c>
@@ -15537,7 +15573,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="414" spans="1:12">
+    <row r="414" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414" s="1">
         <v>412</v>
       </c>
@@ -15569,7 +15605,7 @@
         <v>23000</v>
       </c>
     </row>
-    <row r="415" spans="1:12">
+    <row r="415" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A415" s="1">
         <v>413</v>
       </c>
@@ -15601,7 +15637,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="416" spans="1:12">
+    <row r="416" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416" s="1">
         <v>414</v>
       </c>
@@ -15633,7 +15669,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="417" spans="1:12">
+    <row r="417" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A417" s="1">
         <v>415</v>
       </c>
@@ -15665,7 +15701,7 @@
         <v>26000</v>
       </c>
     </row>
-    <row r="418" spans="1:12">
+    <row r="418" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A418" s="1">
         <v>416</v>
       </c>
@@ -15697,7 +15733,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="419" spans="1:12">
+    <row r="419" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A419" s="1">
         <v>417</v>
       </c>
@@ -15729,7 +15765,7 @@
         <v>28000</v>
       </c>
     </row>
-    <row r="420" spans="1:12">
+    <row r="420" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A420" s="1">
         <v>418</v>
       </c>
@@ -15761,7 +15797,7 @@
         <v>29000</v>
       </c>
     </row>
-    <row r="421" spans="1:12">
+    <row r="421" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A421" s="1">
         <v>419</v>
       </c>
@@ -15793,7 +15829,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="422" spans="1:12">
+    <row r="422" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A422" s="1">
         <v>420</v>
       </c>
@@ -15831,7 +15867,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="423" spans="1:12">
+    <row r="423" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A423" s="1">
         <v>421</v>
       </c>
@@ -15869,7 +15905,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="424" spans="1:12">
+    <row r="424" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A424" s="1">
         <v>422</v>
       </c>
@@ -15907,7 +15943,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="425" spans="1:12">
+    <row r="425" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A425" s="1">
         <v>423</v>
       </c>
@@ -15945,7 +15981,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="426" spans="1:12">
+    <row r="426" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A426" s="1">
         <v>424</v>
       </c>
@@ -15977,13 +16013,13 @@
         <v>5000</v>
       </c>
       <c r="K426">
-        <v>1143.09</v>
+        <v>1143.0899999999999</v>
       </c>
       <c r="L426" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="427" spans="1:12">
+    <row r="427" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A427" s="1">
         <v>425</v>
       </c>
@@ -16021,7 +16057,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="428" spans="1:12">
+    <row r="428" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A428" s="1">
         <v>426</v>
       </c>
@@ -16059,7 +16095,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="429" spans="1:12">
+    <row r="429" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A429" s="1">
         <v>427</v>
       </c>
@@ -16097,7 +16133,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="430" spans="1:12">
+    <row r="430" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A430" s="1">
         <v>428</v>
       </c>
@@ -16135,7 +16171,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="431" spans="1:12">
+    <row r="431" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431" s="1">
         <v>429</v>
       </c>
@@ -16173,7 +16209,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="432" spans="1:12">
+    <row r="432" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A432" s="1">
         <v>430</v>
       </c>
@@ -16211,7 +16247,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="433" spans="1:12">
+    <row r="433" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A433" s="1">
         <v>431</v>
       </c>
@@ -16249,7 +16285,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="434" spans="1:12">
+    <row r="434" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A434" s="1">
         <v>432</v>
       </c>
@@ -16281,13 +16317,13 @@
         <v>13000</v>
       </c>
       <c r="K434">
-        <v>2527.2</v>
+        <v>2527.1999999999998</v>
       </c>
       <c r="L434" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="435" spans="1:12">
+    <row r="435" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A435" s="1">
         <v>433</v>
       </c>
@@ -16325,7 +16361,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="436" spans="1:12">
+    <row r="436" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A436" s="1">
         <v>434</v>
       </c>
@@ -16363,7 +16399,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="437" spans="1:12">
+    <row r="437" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A437" s="1">
         <v>435</v>
       </c>
@@ -16401,7 +16437,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="438" spans="1:12">
+    <row r="438" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A438" s="1">
         <v>436</v>
       </c>
@@ -16439,7 +16475,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="439" spans="1:12">
+    <row r="439" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A439" s="1">
         <v>437</v>
       </c>
@@ -16477,7 +16513,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="440" spans="1:12">
+    <row r="440" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A440" s="1">
         <v>438</v>
       </c>
@@ -16515,7 +16551,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="441" spans="1:12">
+    <row r="441" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A441" s="1">
         <v>439</v>
       </c>
@@ -16547,7 +16583,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="442" spans="1:12">
+    <row r="442" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A442" s="1">
         <v>440</v>
       </c>
@@ -16579,7 +16615,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="443" spans="1:12">
+    <row r="443" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A443" s="1">
         <v>441</v>
       </c>
@@ -16611,7 +16647,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="444" spans="1:12">
+    <row r="444" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A444" s="1">
         <v>442</v>
       </c>
@@ -16643,7 +16679,7 @@
         <v>23000</v>
       </c>
     </row>
-    <row r="445" spans="1:12">
+    <row r="445" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A445" s="1">
         <v>443</v>
       </c>
@@ -16675,7 +16711,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="446" spans="1:12">
+    <row r="446" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A446" s="1">
         <v>444</v>
       </c>
@@ -16707,7 +16743,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="447" spans="1:12">
+    <row r="447" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A447" s="1">
         <v>445</v>
       </c>
@@ -16739,7 +16775,7 @@
         <v>26000</v>
       </c>
     </row>
-    <row r="448" spans="1:12">
+    <row r="448" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A448" s="1">
         <v>446</v>
       </c>
@@ -16771,7 +16807,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="449" spans="1:12">
+    <row r="449" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A449" s="1">
         <v>447</v>
       </c>
@@ -16803,7 +16839,7 @@
         <v>28000</v>
       </c>
     </row>
-    <row r="450" spans="1:12">
+    <row r="450" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A450" s="1">
         <v>448</v>
       </c>
@@ -16835,7 +16871,7 @@
         <v>29000</v>
       </c>
     </row>
-    <row r="451" spans="1:12">
+    <row r="451" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A451" s="1">
         <v>449</v>
       </c>
@@ -16867,7 +16903,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="452" spans="1:12">
+    <row r="452" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A452" s="1">
         <v>450</v>
       </c>
@@ -16905,7 +16941,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="453" spans="1:12">
+    <row r="453" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A453" s="1">
         <v>451</v>
       </c>
@@ -16943,7 +16979,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="454" spans="1:12">
+    <row r="454" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A454" s="1">
         <v>452</v>
       </c>
@@ -16981,7 +17017,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="455" spans="1:12">
+    <row r="455" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A455" s="1">
         <v>453</v>
       </c>
@@ -17019,7 +17055,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="456" spans="1:12">
+    <row r="456" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A456" s="1">
         <v>454</v>
       </c>
@@ -17057,7 +17093,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="457" spans="1:12">
+    <row r="457" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A457" s="1">
         <v>455</v>
       </c>
@@ -17095,7 +17131,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="458" spans="1:12">
+    <row r="458" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A458" s="1">
         <v>456</v>
       </c>
@@ -17133,7 +17169,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="459" spans="1:12">
+    <row r="459" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A459" s="1">
         <v>457</v>
       </c>
@@ -17171,7 +17207,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="460" spans="1:12">
+    <row r="460" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A460" s="1">
         <v>458</v>
       </c>
@@ -17209,7 +17245,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="461" spans="1:12">
+    <row r="461" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A461" s="1">
         <v>459</v>
       </c>
@@ -17247,7 +17283,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="462" spans="1:12">
+    <row r="462" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A462" s="1">
         <v>460</v>
       </c>
@@ -17285,7 +17321,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="463" spans="1:12">
+    <row r="463" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A463" s="1">
         <v>461</v>
       </c>
@@ -17323,7 +17359,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="464" spans="1:12">
+    <row r="464" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A464" s="1">
         <v>462</v>
       </c>
@@ -17361,7 +17397,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="465" spans="1:12">
+    <row r="465" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A465" s="1">
         <v>463</v>
       </c>
@@ -17393,13 +17429,13 @@
         <v>14000</v>
       </c>
       <c r="K465">
-        <v>2234.7</v>
+        <v>2234.6999999999998</v>
       </c>
       <c r="L465" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="466" spans="1:12">
+    <row r="466" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A466" s="1">
         <v>464</v>
       </c>
@@ -17437,7 +17473,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="467" spans="1:12">
+    <row r="467" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A467" s="1">
         <v>465</v>
       </c>
@@ -17475,7 +17511,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="468" spans="1:12">
+    <row r="468" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A468" s="1">
         <v>466</v>
       </c>
@@ -17513,7 +17549,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="469" spans="1:12">
+    <row r="469" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A469" s="1">
         <v>467</v>
       </c>
@@ -17551,7 +17587,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="470" spans="1:12">
+    <row r="470" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A470" s="1">
         <v>468</v>
       </c>
@@ -17589,7 +17625,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="471" spans="1:12">
+    <row r="471" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A471" s="1">
         <v>469</v>
       </c>
@@ -17621,7 +17657,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="472" spans="1:12">
+    <row r="472" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A472" s="1">
         <v>470</v>
       </c>
@@ -17653,7 +17689,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="473" spans="1:12">
+    <row r="473" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A473" s="1">
         <v>471</v>
       </c>
@@ -17685,7 +17721,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="474" spans="1:12">
+    <row r="474" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A474" s="1">
         <v>472</v>
       </c>
@@ -17717,7 +17753,7 @@
         <v>23000</v>
       </c>
     </row>
-    <row r="475" spans="1:12">
+    <row r="475" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A475" s="1">
         <v>473</v>
       </c>
@@ -17749,7 +17785,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="476" spans="1:12">
+    <row r="476" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A476" s="1">
         <v>474</v>
       </c>
@@ -17781,7 +17817,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="477" spans="1:12">
+    <row r="477" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A477" s="1">
         <v>475</v>
       </c>
@@ -17813,7 +17849,7 @@
         <v>26000</v>
       </c>
     </row>
-    <row r="478" spans="1:12">
+    <row r="478" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A478" s="1">
         <v>476</v>
       </c>
@@ -17845,7 +17881,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="479" spans="1:12">
+    <row r="479" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A479" s="1">
         <v>477</v>
       </c>
@@ -17877,7 +17913,7 @@
         <v>28000</v>
       </c>
     </row>
-    <row r="480" spans="1:12">
+    <row r="480" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A480" s="1">
         <v>478</v>
       </c>
@@ -17909,7 +17945,7 @@
         <v>29000</v>
       </c>
     </row>
-    <row r="481" spans="1:12">
+    <row r="481" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A481" s="1">
         <v>479</v>
       </c>
@@ -17941,7 +17977,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="482" spans="1:12">
+    <row r="482" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A482" s="1">
         <v>480</v>
       </c>
@@ -17979,7 +18015,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="483" spans="1:12">
+    <row r="483" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A483" s="1">
         <v>481</v>
       </c>
@@ -18017,7 +18053,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="484" spans="1:12">
+    <row r="484" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A484" s="1">
         <v>482</v>
       </c>
@@ -18055,7 +18091,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="485" spans="1:12">
+    <row r="485" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A485" s="1">
         <v>483</v>
       </c>
@@ -18093,7 +18129,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="486" spans="1:12">
+    <row r="486" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A486" s="1">
         <v>484</v>
       </c>
@@ -18125,13 +18161,13 @@
         <v>5000</v>
       </c>
       <c r="K486">
-        <v>1143.09</v>
+        <v>1143.0899999999999</v>
       </c>
       <c r="L486" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="487" spans="1:12">
+    <row r="487" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A487" s="1">
         <v>485</v>
       </c>
@@ -18169,7 +18205,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="488" spans="1:12">
+    <row r="488" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A488" s="1">
         <v>486</v>
       </c>
@@ -18207,7 +18243,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="489" spans="1:12">
+    <row r="489" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A489" s="1">
         <v>487</v>
       </c>
@@ -18245,7 +18281,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="490" spans="1:12">
+    <row r="490" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A490" s="1">
         <v>488</v>
       </c>
@@ -18283,7 +18319,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="491" spans="1:12">
+    <row r="491" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A491" s="1">
         <v>489</v>
       </c>
@@ -18321,7 +18357,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="492" spans="1:12">
+    <row r="492" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A492" s="1">
         <v>490</v>
       </c>
@@ -18359,7 +18395,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="493" spans="1:12">
+    <row r="493" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A493" s="1">
         <v>491</v>
       </c>
@@ -18397,7 +18433,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="494" spans="1:12">
+    <row r="494" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A494" s="1">
         <v>492</v>
       </c>
@@ -18429,13 +18465,13 @@
         <v>13000</v>
       </c>
       <c r="K494">
-        <v>2527.2</v>
+        <v>2527.1999999999998</v>
       </c>
       <c r="L494" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="495" spans="1:12">
+    <row r="495" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A495" s="1">
         <v>493</v>
       </c>
@@ -18473,7 +18509,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="496" spans="1:12">
+    <row r="496" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A496" s="1">
         <v>494</v>
       </c>
@@ -18511,7 +18547,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="497" spans="1:12">
+    <row r="497" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A497" s="1">
         <v>495</v>
       </c>
@@ -18549,7 +18585,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="498" spans="1:12">
+    <row r="498" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A498" s="1">
         <v>496</v>
       </c>
@@ -18587,7 +18623,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="499" spans="1:12">
+    <row r="499" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A499" s="1">
         <v>497</v>
       </c>
@@ -18625,7 +18661,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="500" spans="1:12">
+    <row r="500" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A500" s="1">
         <v>498</v>
       </c>
@@ -18663,7 +18699,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="501" spans="1:12">
+    <row r="501" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A501" s="1">
         <v>499</v>
       </c>
@@ -18695,7 +18731,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="502" spans="1:12">
+    <row r="502" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A502" s="1">
         <v>500</v>
       </c>
@@ -18727,7 +18763,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="503" spans="1:12">
+    <row r="503" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A503" s="1">
         <v>501</v>
       </c>
@@ -18759,7 +18795,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="504" spans="1:12">
+    <row r="504" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A504" s="1">
         <v>502</v>
       </c>
@@ -18791,7 +18827,7 @@
         <v>23000</v>
       </c>
     </row>
-    <row r="505" spans="1:12">
+    <row r="505" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A505" s="1">
         <v>503</v>
       </c>
@@ -18823,7 +18859,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="506" spans="1:12">
+    <row r="506" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A506" s="1">
         <v>504</v>
       </c>
@@ -18855,7 +18891,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="507" spans="1:12">
+    <row r="507" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A507" s="1">
         <v>505</v>
       </c>
@@ -18887,7 +18923,7 @@
         <v>26000</v>
       </c>
     </row>
-    <row r="508" spans="1:12">
+    <row r="508" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A508" s="1">
         <v>506</v>
       </c>
@@ -18919,7 +18955,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="509" spans="1:12">
+    <row r="509" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A509" s="1">
         <v>507</v>
       </c>
@@ -18951,7 +18987,7 @@
         <v>28000</v>
       </c>
     </row>
-    <row r="510" spans="1:12">
+    <row r="510" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A510" s="1">
         <v>508</v>
       </c>
@@ -18983,7 +19019,7 @@
         <v>29000</v>
       </c>
     </row>
-    <row r="511" spans="1:12">
+    <row r="511" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A511" s="1">
         <v>509</v>
       </c>
@@ -19015,7 +19051,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="512" spans="1:12">
+    <row r="512" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A512" s="1">
         <v>510</v>
       </c>
@@ -19047,13 +19083,13 @@
         <v>1000</v>
       </c>
       <c r="K512">
-        <v>296.15</v>
+        <v>296.14999999999998</v>
       </c>
       <c r="L512" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="513" spans="1:12">
+    <row r="513" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A513" s="1">
         <v>511</v>
       </c>
@@ -19091,7 +19127,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="514" spans="1:12">
+    <row r="514" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A514" s="1">
         <v>512</v>
       </c>
@@ -19129,7 +19165,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="515" spans="1:12">
+    <row r="515" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A515" s="1">
         <v>513</v>
       </c>
@@ -19167,7 +19203,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="516" spans="1:12">
+    <row r="516" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A516" s="1">
         <v>514</v>
       </c>
@@ -19205,7 +19241,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="517" spans="1:12">
+    <row r="517" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A517" s="1">
         <v>515</v>
       </c>
@@ -19243,7 +19279,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="518" spans="1:12">
+    <row r="518" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A518" s="1">
         <v>516</v>
       </c>
@@ -19281,7 +19317,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="519" spans="1:12">
+    <row r="519" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A519" s="1">
         <v>517</v>
       </c>
@@ -19319,7 +19355,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="520" spans="1:12">
+    <row r="520" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A520" s="1">
         <v>518</v>
       </c>
@@ -19357,7 +19393,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="521" spans="1:12">
+    <row r="521" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A521" s="1">
         <v>519</v>
       </c>
@@ -19395,7 +19431,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="522" spans="1:12">
+    <row r="522" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A522" s="1">
         <v>520</v>
       </c>
@@ -19433,7 +19469,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="523" spans="1:12">
+    <row r="523" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A523" s="1">
         <v>521</v>
       </c>
@@ -19471,7 +19507,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="524" spans="1:12">
+    <row r="524" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A524" s="1">
         <v>522</v>
       </c>
@@ -19509,7 +19545,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="525" spans="1:12">
+    <row r="525" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A525" s="1">
         <v>523</v>
       </c>
@@ -19547,7 +19583,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="526" spans="1:12">
+    <row r="526" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A526" s="1">
         <v>524</v>
       </c>
@@ -19585,7 +19621,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="527" spans="1:12">
+    <row r="527" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A527" s="1">
         <v>525</v>
       </c>
@@ -19623,7 +19659,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="528" spans="1:12">
+    <row r="528" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A528" s="1">
         <v>526</v>
       </c>
@@ -19661,7 +19697,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="529" spans="1:12">
+    <row r="529" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A529" s="1">
         <v>527</v>
       </c>
@@ -19693,13 +19729,13 @@
         <v>18000</v>
       </c>
       <c r="K529">
-        <v>989.8200000000001</v>
+        <v>989.82</v>
       </c>
       <c r="L529" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="530" spans="1:12">
+    <row r="530" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A530" s="1">
         <v>528</v>
       </c>
@@ -19737,7 +19773,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="531" spans="1:12">
+    <row r="531" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A531" s="1">
         <v>529</v>
       </c>
@@ -19769,7 +19805,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="532" spans="1:12">
+    <row r="532" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A532" s="1">
         <v>530</v>
       </c>
@@ -19801,7 +19837,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="533" spans="1:12">
+    <row r="533" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A533" s="1">
         <v>531</v>
       </c>
@@ -19833,7 +19869,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="534" spans="1:12">
+    <row r="534" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A534" s="1">
         <v>532</v>
       </c>
@@ -19865,7 +19901,7 @@
         <v>23000</v>
       </c>
     </row>
-    <row r="535" spans="1:12">
+    <row r="535" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A535" s="1">
         <v>533</v>
       </c>
@@ -19897,7 +19933,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="536" spans="1:12">
+    <row r="536" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A536" s="1">
         <v>534</v>
       </c>
@@ -19929,7 +19965,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="537" spans="1:12">
+    <row r="537" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A537" s="1">
         <v>535</v>
       </c>
@@ -19961,7 +19997,7 @@
         <v>26000</v>
       </c>
     </row>
-    <row r="538" spans="1:12">
+    <row r="538" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A538" s="1">
         <v>536</v>
       </c>
@@ -19993,7 +20029,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="539" spans="1:12">
+    <row r="539" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A539" s="1">
         <v>537</v>
       </c>
@@ -20025,7 +20061,7 @@
         <v>28000</v>
       </c>
     </row>
-    <row r="540" spans="1:12">
+    <row r="540" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A540" s="1">
         <v>538</v>
       </c>
@@ -20057,7 +20093,7 @@
         <v>29000</v>
       </c>
     </row>
-    <row r="541" spans="1:12">
+    <row r="541" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A541" s="1">
         <v>539</v>
       </c>
@@ -20089,7 +20125,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="542" spans="1:12">
+    <row r="542" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A542" s="1">
         <v>540</v>
       </c>
@@ -20127,7 +20163,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="543" spans="1:12">
+    <row r="543" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A543" s="1">
         <v>541</v>
       </c>
@@ -20165,7 +20201,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="544" spans="1:12">
+    <row r="544" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A544" s="1">
         <v>542</v>
       </c>
@@ -20203,7 +20239,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="545" spans="1:12">
+    <row r="545" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A545" s="1">
         <v>543</v>
       </c>
@@ -20235,13 +20271,13 @@
         <v>4000</v>
       </c>
       <c r="K545">
-        <v>595.6799999999999</v>
+        <v>595.67999999999995</v>
       </c>
       <c r="L545" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="546" spans="1:12">
+    <row r="546" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A546" s="1">
         <v>544</v>
       </c>
@@ -20279,7 +20315,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="547" spans="1:12">
+    <row r="547" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A547" s="1">
         <v>545</v>
       </c>
@@ -20317,7 +20353,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="548" spans="1:12">
+    <row r="548" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A548" s="1">
         <v>546</v>
       </c>
@@ -20355,7 +20391,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="549" spans="1:12">
+    <row r="549" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A549" s="1">
         <v>547</v>
       </c>
@@ -20393,7 +20429,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="550" spans="1:12">
+    <row r="550" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A550" s="1">
         <v>548</v>
       </c>
@@ -20431,7 +20467,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="551" spans="1:12">
+    <row r="551" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A551" s="1">
         <v>549</v>
       </c>
@@ -20469,7 +20505,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="552" spans="1:12">
+    <row r="552" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A552" s="1">
         <v>550</v>
       </c>
@@ -20507,7 +20543,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="553" spans="1:12">
+    <row r="553" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A553" s="1">
         <v>551</v>
       </c>
@@ -20545,7 +20581,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="554" spans="1:12">
+    <row r="554" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A554" s="1">
         <v>552</v>
       </c>
@@ -20583,7 +20619,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="555" spans="1:12">
+    <row r="555" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A555" s="1">
         <v>553</v>
       </c>
@@ -20621,7 +20657,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="556" spans="1:12">
+    <row r="556" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A556" s="1">
         <v>554</v>
       </c>
@@ -20659,7 +20695,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="557" spans="1:12">
+    <row r="557" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A557" s="1">
         <v>555</v>
       </c>
@@ -20697,7 +20733,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="558" spans="1:12">
+    <row r="558" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A558" s="1">
         <v>556</v>
       </c>
@@ -20729,13 +20765,13 @@
         <v>17000</v>
       </c>
       <c r="K558">
-        <v>2153.97</v>
+        <v>2153.9699999999998</v>
       </c>
       <c r="L558" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="559" spans="1:12">
+    <row r="559" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A559" s="1">
         <v>557</v>
       </c>
@@ -20773,7 +20809,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="560" spans="1:12">
+    <row r="560" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A560" s="1">
         <v>558</v>
       </c>
@@ -20811,7 +20847,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="561" spans="1:12">
+    <row r="561" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A561" s="1">
         <v>559</v>
       </c>
@@ -20843,7 +20879,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="562" spans="1:12">
+    <row r="562" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A562" s="1">
         <v>560</v>
       </c>
@@ -20875,7 +20911,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="563" spans="1:12">
+    <row r="563" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A563" s="1">
         <v>561</v>
       </c>
@@ -20907,7 +20943,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="564" spans="1:12">
+    <row r="564" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A564" s="1">
         <v>562</v>
       </c>
@@ -20939,7 +20975,7 @@
         <v>23000</v>
       </c>
     </row>
-    <row r="565" spans="1:12">
+    <row r="565" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A565" s="1">
         <v>563</v>
       </c>
@@ -20971,7 +21007,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="566" spans="1:12">
+    <row r="566" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A566" s="1">
         <v>564</v>
       </c>
@@ -21003,7 +21039,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="567" spans="1:12">
+    <row r="567" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A567" s="1">
         <v>565</v>
       </c>
@@ -21035,7 +21071,7 @@
         <v>26000</v>
       </c>
     </row>
-    <row r="568" spans="1:12">
+    <row r="568" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A568" s="1">
         <v>566</v>
       </c>
@@ -21067,7 +21103,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="569" spans="1:12">
+    <row r="569" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A569" s="1">
         <v>567</v>
       </c>
@@ -21099,7 +21135,7 @@
         <v>28000</v>
       </c>
     </row>
-    <row r="570" spans="1:12">
+    <row r="570" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A570" s="1">
         <v>568</v>
       </c>
@@ -21131,7 +21167,7 @@
         <v>29000</v>
       </c>
     </row>
-    <row r="571" spans="1:12">
+    <row r="571" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A571" s="1">
         <v>569</v>
       </c>
@@ -21163,7 +21199,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="572" spans="1:12">
+    <row r="572" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A572" s="1">
         <v>570</v>
       </c>
@@ -21201,7 +21237,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="573" spans="1:12">
+    <row r="573" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A573" s="1">
         <v>571</v>
       </c>
@@ -21239,7 +21275,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="574" spans="1:12">
+    <row r="574" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A574" s="1">
         <v>572</v>
       </c>
@@ -21277,7 +21313,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="575" spans="1:12">
+    <row r="575" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A575" s="1">
         <v>573</v>
       </c>
@@ -21315,7 +21351,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="576" spans="1:12">
+    <row r="576" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A576" s="1">
         <v>574</v>
       </c>
@@ -21353,7 +21389,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="577" spans="1:12">
+    <row r="577" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A577" s="1">
         <v>575</v>
       </c>
@@ -21391,7 +21427,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="578" spans="1:12">
+    <row r="578" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A578" s="1">
         <v>576</v>
       </c>
@@ -21429,7 +21465,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="579" spans="1:12">
+    <row r="579" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A579" s="1">
         <v>577</v>
       </c>
@@ -21467,7 +21503,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="580" spans="1:12">
+    <row r="580" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A580" s="1">
         <v>578</v>
       </c>
@@ -21505,7 +21541,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="581" spans="1:12">
+    <row r="581" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A581" s="1">
         <v>579</v>
       </c>
@@ -21537,13 +21573,13 @@
         <v>10000</v>
       </c>
       <c r="K581">
-        <v>1175.85</v>
+        <v>1175.8499999999999</v>
       </c>
       <c r="L581" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="582" spans="1:12">
+    <row r="582" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A582" s="1">
         <v>580</v>
       </c>
@@ -21581,7 +21617,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="583" spans="1:12">
+    <row r="583" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A583" s="1">
         <v>581</v>
       </c>
@@ -21619,7 +21655,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="584" spans="1:12">
+    <row r="584" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A584" s="1">
         <v>582</v>
       </c>
@@ -21657,7 +21693,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="585" spans="1:12">
+    <row r="585" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A585" s="1">
         <v>583</v>
       </c>
@@ -21695,7 +21731,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="586" spans="1:12">
+    <row r="586" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A586" s="1">
         <v>584</v>
       </c>
@@ -21733,7 +21769,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="587" spans="1:12">
+    <row r="587" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A587" s="1">
         <v>585</v>
       </c>
@@ -21771,7 +21807,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="588" spans="1:12">
+    <row r="588" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A588" s="1">
         <v>586</v>
       </c>
@@ -21809,7 +21845,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="589" spans="1:12">
+    <row r="589" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A589" s="1">
         <v>587</v>
       </c>
@@ -21847,7 +21883,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="590" spans="1:12">
+    <row r="590" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A590" s="1">
         <v>588</v>
       </c>
@@ -21885,7 +21921,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="591" spans="1:12">
+    <row r="591" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A591" s="1">
         <v>589</v>
       </c>
@@ -21917,7 +21953,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="592" spans="1:12">
+    <row r="592" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A592" s="1">
         <v>590</v>
       </c>
@@ -21949,7 +21985,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="593" spans="1:12">
+    <row r="593" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A593" s="1">
         <v>591</v>
       </c>
@@ -21981,7 +22017,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="594" spans="1:12">
+    <row r="594" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A594" s="1">
         <v>592</v>
       </c>
@@ -22013,7 +22049,7 @@
         <v>23000</v>
       </c>
     </row>
-    <row r="595" spans="1:12">
+    <row r="595" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A595" s="1">
         <v>593</v>
       </c>
@@ -22045,7 +22081,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="596" spans="1:12">
+    <row r="596" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A596" s="1">
         <v>594</v>
       </c>
@@ -22077,7 +22113,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="597" spans="1:12">
+    <row r="597" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A597" s="1">
         <v>595</v>
       </c>
@@ -22109,7 +22145,7 @@
         <v>26000</v>
       </c>
     </row>
-    <row r="598" spans="1:12">
+    <row r="598" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A598" s="1">
         <v>596</v>
       </c>
@@ -22141,7 +22177,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="599" spans="1:12">
+    <row r="599" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A599" s="1">
         <v>597</v>
       </c>
@@ -22173,7 +22209,7 @@
         <v>28000</v>
       </c>
     </row>
-    <row r="600" spans="1:12">
+    <row r="600" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A600" s="1">
         <v>598</v>
       </c>
@@ -22205,7 +22241,7 @@
         <v>29000</v>
       </c>
     </row>
-    <row r="601" spans="1:12">
+    <row r="601" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A601" s="1">
         <v>599</v>
       </c>
@@ -22237,7 +22273,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="602" spans="1:12">
+    <row r="602" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A602" s="1">
         <v>600</v>
       </c>
@@ -22269,13 +22305,13 @@
         <v>1000</v>
       </c>
       <c r="K602">
-        <v>283.84</v>
+        <v>283.83999999999997</v>
       </c>
       <c r="L602" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="603" spans="1:12">
+    <row r="603" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A603" s="1">
         <v>601</v>
       </c>
@@ -22313,7 +22349,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="604" spans="1:12">
+    <row r="604" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A604" s="1">
         <v>602</v>
       </c>
@@ -22351,7 +22387,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="605" spans="1:12">
+    <row r="605" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A605" s="1">
         <v>603</v>
       </c>
@@ -22389,7 +22425,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="606" spans="1:12">
+    <row r="606" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A606" s="1">
         <v>604</v>
       </c>
@@ -22421,13 +22457,13 @@
         <v>5000</v>
       </c>
       <c r="K606">
-        <v>586.9299999999999</v>
+        <v>586.92999999999995</v>
       </c>
       <c r="L606" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="607" spans="1:12">
+    <row r="607" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A607" s="1">
         <v>605</v>
       </c>
@@ -22465,7 +22501,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="608" spans="1:12">
+    <row r="608" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A608" s="1">
         <v>606</v>
       </c>
@@ -22503,7 +22539,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="609" spans="1:12">
+    <row r="609" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A609" s="1">
         <v>607</v>
       </c>
@@ -22541,7 +22577,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="610" spans="1:12">
+    <row r="610" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A610" s="1">
         <v>608</v>
       </c>
@@ -22579,7 +22615,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="611" spans="1:12">
+    <row r="611" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A611" s="1">
         <v>609</v>
       </c>
@@ -22617,7 +22653,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="612" spans="1:12">
+    <row r="612" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A612" s="1">
         <v>610</v>
       </c>
@@ -22655,7 +22691,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="613" spans="1:12">
+    <row r="613" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A613" s="1">
         <v>611</v>
       </c>
@@ -22687,13 +22723,13 @@
         <v>12000</v>
       </c>
       <c r="K613">
-        <v>1043.64</v>
+        <v>1043.6400000000001</v>
       </c>
       <c r="L613" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="614" spans="1:12">
+    <row r="614" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A614" s="1">
         <v>612</v>
       </c>
@@ -22731,7 +22767,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="615" spans="1:12">
+    <row r="615" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A615" s="1">
         <v>613</v>
       </c>
@@ -22763,13 +22799,13 @@
         <v>14000</v>
       </c>
       <c r="K615">
-        <v>1072.89</v>
+        <v>1072.8900000000001</v>
       </c>
       <c r="L615" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="616" spans="1:12">
+    <row r="616" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A616" s="1">
         <v>614</v>
       </c>
@@ -22801,13 +22837,13 @@
         <v>15000</v>
       </c>
       <c r="K616">
-        <v>1091.61</v>
+        <v>1091.6099999999999</v>
       </c>
       <c r="L616" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="617" spans="1:12">
+    <row r="617" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A617" s="1">
         <v>615</v>
       </c>
@@ -22845,7 +22881,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="618" spans="1:12">
+    <row r="618" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A618" s="1">
         <v>616</v>
       </c>
@@ -22883,7 +22919,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="619" spans="1:12">
+    <row r="619" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A619" s="1">
         <v>617</v>
       </c>
@@ -22921,7 +22957,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="620" spans="1:12">
+    <row r="620" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A620" s="1">
         <v>618</v>
       </c>
@@ -22959,7 +22995,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="621" spans="1:12">
+    <row r="621" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A621" s="1">
         <v>619</v>
       </c>
@@ -22991,7 +23027,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="622" spans="1:12">
+    <row r="622" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A622" s="1">
         <v>620</v>
       </c>
@@ -23023,7 +23059,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="623" spans="1:12">
+    <row r="623" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A623" s="1">
         <v>621</v>
       </c>
@@ -23055,7 +23091,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="624" spans="1:12">
+    <row r="624" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A624" s="1">
         <v>622</v>
       </c>
@@ -23087,7 +23123,7 @@
         <v>23000</v>
       </c>
     </row>
-    <row r="625" spans="1:12">
+    <row r="625" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A625" s="1">
         <v>623</v>
       </c>
@@ -23119,7 +23155,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="626" spans="1:12">
+    <row r="626" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A626" s="1">
         <v>624</v>
       </c>
@@ -23151,7 +23187,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="627" spans="1:12">
+    <row r="627" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A627" s="1">
         <v>625</v>
       </c>
@@ -23183,7 +23219,7 @@
         <v>26000</v>
       </c>
     </row>
-    <row r="628" spans="1:12">
+    <row r="628" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A628" s="1">
         <v>626</v>
       </c>
@@ -23215,7 +23251,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="629" spans="1:12">
+    <row r="629" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A629" s="1">
         <v>627</v>
       </c>
@@ -23247,7 +23283,7 @@
         <v>28000</v>
       </c>
     </row>
-    <row r="630" spans="1:12">
+    <row r="630" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A630" s="1">
         <v>628</v>
       </c>
@@ -23279,7 +23315,7 @@
         <v>29000</v>
       </c>
     </row>
-    <row r="631" spans="1:12">
+    <row r="631" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A631" s="1">
         <v>629</v>
       </c>
@@ -23311,7 +23347,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="632" spans="1:12">
+    <row r="632" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A632" s="1">
         <v>630</v>
       </c>
@@ -23343,13 +23379,13 @@
         <v>1000</v>
       </c>
       <c r="K632">
-        <v>258.15</v>
+        <v>258.14999999999998</v>
       </c>
       <c r="L632" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="633" spans="1:12">
+    <row r="633" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A633" s="1">
         <v>631</v>
       </c>
@@ -23387,7 +23423,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="634" spans="1:12">
+    <row r="634" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A634" s="1">
         <v>632</v>
       </c>
@@ -23425,7 +23461,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="635" spans="1:12">
+    <row r="635" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A635" s="1">
         <v>633</v>
       </c>
@@ -23463,7 +23499,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="636" spans="1:12">
+    <row r="636" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A636" s="1">
         <v>634</v>
       </c>
@@ -23495,13 +23531,13 @@
         <v>5000</v>
       </c>
       <c r="K636">
-        <v>604.4299999999999</v>
+        <v>604.42999999999995</v>
       </c>
       <c r="L636" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="637" spans="1:12">
+    <row r="637" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A637" s="1">
         <v>635</v>
       </c>
@@ -23533,13 +23569,13 @@
         <v>6000</v>
       </c>
       <c r="K637">
-        <v>673.9299999999999</v>
+        <v>673.93</v>
       </c>
       <c r="L637" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="638" spans="1:12">
+    <row r="638" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A638" s="1">
         <v>636</v>
       </c>
@@ -23577,7 +23613,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="639" spans="1:12">
+    <row r="639" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A639" s="1">
         <v>637</v>
       </c>
@@ -23615,7 +23651,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="640" spans="1:12">
+    <row r="640" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A640" s="1">
         <v>638</v>
       </c>
@@ -23653,7 +23689,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="641" spans="1:12">
+    <row r="641" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A641" s="1">
         <v>639</v>
       </c>
@@ -23691,7 +23727,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="642" spans="1:12">
+    <row r="642" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A642" s="1">
         <v>640</v>
       </c>
@@ -23723,13 +23759,13 @@
         <v>11000</v>
       </c>
       <c r="K642">
-        <v>1201.59</v>
+        <v>1201.5899999999999</v>
       </c>
       <c r="L642" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="643" spans="1:12">
+    <row r="643" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A643" s="1">
         <v>641</v>
       </c>
@@ -23761,13 +23797,13 @@
         <v>12000</v>
       </c>
       <c r="K643">
-        <v>1255.41</v>
+        <v>1255.4100000000001</v>
       </c>
       <c r="L643" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="644" spans="1:12">
+    <row r="644" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A644" s="1">
         <v>642</v>
       </c>
@@ -23799,13 +23835,13 @@
         <v>13000</v>
       </c>
       <c r="K644">
-        <v>1299.87</v>
+        <v>1299.8699999999999</v>
       </c>
       <c r="L644" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="645" spans="1:12">
+    <row r="645" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A645" s="1">
         <v>643</v>
       </c>
@@ -23843,7 +23879,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="646" spans="1:12">
+    <row r="646" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A646" s="1">
         <v>644</v>
       </c>
@@ -23881,7 +23917,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="647" spans="1:12">
+    <row r="647" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A647" s="1">
         <v>645</v>
       </c>
@@ -23919,7 +23955,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="648" spans="1:12">
+    <row r="648" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A648" s="1">
         <v>646</v>
       </c>
@@ -23957,7 +23993,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="649" spans="1:12">
+    <row r="649" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A649" s="1">
         <v>647</v>
       </c>
@@ -23995,7 +24031,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="650" spans="1:12">
+    <row r="650" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A650" s="1">
         <v>648</v>
       </c>
@@ -24033,7 +24069,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="651" spans="1:12">
+    <row r="651" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A651" s="1">
         <v>649</v>
       </c>
@@ -24065,7 +24101,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="652" spans="1:12">
+    <row r="652" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A652" s="1">
         <v>650</v>
       </c>
@@ -24097,7 +24133,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="653" spans="1:12">
+    <row r="653" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A653" s="1">
         <v>651</v>
       </c>
@@ -24129,7 +24165,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="654" spans="1:12">
+    <row r="654" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A654" s="1">
         <v>652</v>
       </c>
@@ -24161,7 +24197,7 @@
         <v>23000</v>
       </c>
     </row>
-    <row r="655" spans="1:12">
+    <row r="655" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A655" s="1">
         <v>653</v>
       </c>
@@ -24193,7 +24229,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="656" spans="1:12">
+    <row r="656" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A656" s="1">
         <v>654</v>
       </c>
@@ -24225,7 +24261,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="657" spans="1:12">
+    <row r="657" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A657" s="1">
         <v>655</v>
       </c>
@@ -24257,7 +24293,7 @@
         <v>26000</v>
       </c>
     </row>
-    <row r="658" spans="1:12">
+    <row r="658" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A658" s="1">
         <v>656</v>
       </c>
@@ -24289,7 +24325,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="659" spans="1:12">
+    <row r="659" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A659" s="1">
         <v>657</v>
       </c>
@@ -24321,7 +24357,7 @@
         <v>28000</v>
       </c>
     </row>
-    <row r="660" spans="1:12">
+    <row r="660" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A660" s="1">
         <v>658</v>
       </c>
@@ -24353,7 +24389,7 @@
         <v>29000</v>
       </c>
     </row>
-    <row r="661" spans="1:12">
+    <row r="661" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A661" s="1">
         <v>659</v>
       </c>
@@ -24385,7 +24421,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="662" spans="1:12">
+    <row r="662" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A662" s="1">
         <v>660</v>
       </c>
@@ -24423,7 +24459,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="663" spans="1:12">
+    <row r="663" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A663" s="1">
         <v>661</v>
       </c>
@@ -24461,7 +24497,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="664" spans="1:12">
+    <row r="664" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A664" s="1">
         <v>662</v>
       </c>
@@ -24499,7 +24535,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="665" spans="1:12">
+    <row r="665" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A665" s="1">
         <v>663</v>
       </c>
@@ -24537,7 +24573,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="666" spans="1:12">
+    <row r="666" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A666" s="1">
         <v>664</v>
       </c>
@@ -24575,7 +24611,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="667" spans="1:12">
+    <row r="667" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A667" s="1">
         <v>665</v>
       </c>
@@ -24613,7 +24649,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="668" spans="1:12">
+    <row r="668" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A668" s="1">
         <v>666</v>
       </c>
@@ -24645,13 +24681,13 @@
         <v>7000</v>
       </c>
       <c r="K668">
-        <v>856.4400000000001</v>
+        <v>856.44</v>
       </c>
       <c r="L668" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="669" spans="1:12">
+    <row r="669" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A669" s="1">
         <v>667</v>
       </c>
@@ -24689,7 +24725,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="670" spans="1:12">
+    <row r="670" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A670" s="1">
         <v>668</v>
       </c>
@@ -24721,13 +24757,13 @@
         <v>9000</v>
       </c>
       <c r="K670">
-        <v>986.3099999999999</v>
+        <v>986.31</v>
       </c>
       <c r="L670" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="671" spans="1:12">
+    <row r="671" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A671" s="1">
         <v>669</v>
       </c>
@@ -24765,7 +24801,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="672" spans="1:12">
+    <row r="672" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A672" s="1">
         <v>670</v>
       </c>
@@ -24803,7 +24839,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="673" spans="1:12">
+    <row r="673" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A673" s="1">
         <v>671</v>
       </c>
@@ -24841,7 +24877,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="674" spans="1:12">
+    <row r="674" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A674" s="1">
         <v>672</v>
       </c>
@@ -24879,7 +24915,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="675" spans="1:12">
+    <row r="675" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A675" s="1">
         <v>673</v>
       </c>
@@ -24917,7 +24953,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="676" spans="1:12">
+    <row r="676" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A676" s="1">
         <v>674</v>
       </c>
@@ -24955,7 +24991,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="677" spans="1:12">
+    <row r="677" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A677" s="1">
         <v>675</v>
       </c>
@@ -24993,7 +25029,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="678" spans="1:12">
+    <row r="678" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A678" s="1">
         <v>676</v>
       </c>
@@ -25031,7 +25067,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="679" spans="1:12">
+    <row r="679" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A679" s="1">
         <v>677</v>
       </c>
@@ -25069,7 +25105,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="680" spans="1:12">
+    <row r="680" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A680" s="1">
         <v>678</v>
       </c>
@@ -25107,7 +25143,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="681" spans="1:12">
+    <row r="681" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A681" s="1">
         <v>679</v>
       </c>
@@ -25139,7 +25175,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="682" spans="1:12">
+    <row r="682" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A682" s="1">
         <v>680</v>
       </c>
@@ -25171,7 +25207,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="683" spans="1:12">
+    <row r="683" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A683" s="1">
         <v>681</v>
       </c>
@@ -25203,7 +25239,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="684" spans="1:12">
+    <row r="684" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A684" s="1">
         <v>682</v>
       </c>
@@ -25235,7 +25271,7 @@
         <v>23000</v>
       </c>
     </row>
-    <row r="685" spans="1:12">
+    <row r="685" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A685" s="1">
         <v>683</v>
       </c>
@@ -25267,7 +25303,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="686" spans="1:12">
+    <row r="686" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A686" s="1">
         <v>684</v>
       </c>
@@ -25299,7 +25335,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="687" spans="1:12">
+    <row r="687" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A687" s="1">
         <v>685</v>
       </c>
@@ -25331,7 +25367,7 @@
         <v>26000</v>
       </c>
     </row>
-    <row r="688" spans="1:12">
+    <row r="688" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A688" s="1">
         <v>686</v>
       </c>
@@ -25363,7 +25399,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="689" spans="1:12">
+    <row r="689" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A689" s="1">
         <v>687</v>
       </c>
@@ -25395,7 +25431,7 @@
         <v>28000</v>
       </c>
     </row>
-    <row r="690" spans="1:12">
+    <row r="690" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A690" s="1">
         <v>688</v>
       </c>
@@ -25427,7 +25463,7 @@
         <v>29000</v>
       </c>
     </row>
-    <row r="691" spans="1:12">
+    <row r="691" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A691" s="1">
         <v>689</v>
       </c>
@@ -25459,7 +25495,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="692" spans="1:12">
+    <row r="692" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A692" s="1">
         <v>690</v>
       </c>
@@ -25497,7 +25533,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="693" spans="1:12">
+    <row r="693" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A693" s="1">
         <v>691</v>
       </c>
@@ -25535,7 +25571,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="694" spans="1:12">
+    <row r="694" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A694" s="1">
         <v>692</v>
       </c>
@@ -25573,7 +25609,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="695" spans="1:12">
+    <row r="695" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A695" s="1">
         <v>693</v>
       </c>
@@ -25605,13 +25641,13 @@
         <v>4000</v>
       </c>
       <c r="K695">
-        <v>1065.87</v>
+        <v>1065.8699999999999</v>
       </c>
       <c r="L695" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="696" spans="1:12">
+    <row r="696" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A696" s="1">
         <v>694</v>
       </c>
@@ -25649,7 +25685,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="697" spans="1:12">
+    <row r="697" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A697" s="1">
         <v>695</v>
       </c>
@@ -25687,7 +25723,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="698" spans="1:12">
+    <row r="698" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A698" s="1">
         <v>696</v>
       </c>
@@ -25725,7 +25761,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="699" spans="1:12">
+    <row r="699" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A699" s="1">
         <v>697</v>
       </c>
@@ -25763,7 +25799,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="700" spans="1:12">
+    <row r="700" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A700" s="1">
         <v>698</v>
       </c>
@@ -25795,13 +25831,13 @@
         <v>9000</v>
       </c>
       <c r="K700">
-        <v>2293.2</v>
+        <v>2293.1999999999998</v>
       </c>
       <c r="L700" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="701" spans="1:12">
+    <row r="701" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A701" s="1">
         <v>699</v>
       </c>
@@ -25839,7 +25875,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="702" spans="1:12">
+    <row r="702" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A702" s="1">
         <v>700</v>
       </c>
@@ -25877,7 +25913,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="703" spans="1:12">
+    <row r="703" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A703" s="1">
         <v>701</v>
       </c>
@@ -25915,7 +25951,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="704" spans="1:12">
+    <row r="704" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A704" s="1">
         <v>702</v>
       </c>
@@ -25953,7 +25989,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="705" spans="1:12">
+    <row r="705" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A705" s="1">
         <v>703</v>
       </c>
@@ -25991,7 +26027,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="706" spans="1:12">
+    <row r="706" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A706" s="1">
         <v>704</v>
       </c>
@@ -26029,7 +26065,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="707" spans="1:12">
+    <row r="707" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A707" s="1">
         <v>705</v>
       </c>
@@ -26067,7 +26103,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="708" spans="1:12">
+    <row r="708" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A708" s="1">
         <v>706</v>
       </c>
@@ -26105,7 +26141,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="709" spans="1:12">
+    <row r="709" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A709" s="1">
         <v>707</v>
       </c>
@@ -26143,7 +26179,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="710" spans="1:12">
+    <row r="710" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A710" s="1">
         <v>708</v>
       </c>
@@ -26181,7 +26217,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="711" spans="1:12">
+    <row r="711" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A711" s="1">
         <v>709</v>
       </c>
@@ -26213,7 +26249,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="712" spans="1:12">
+    <row r="712" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A712" s="1">
         <v>710</v>
       </c>
@@ -26245,7 +26281,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="713" spans="1:12">
+    <row r="713" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A713" s="1">
         <v>711</v>
       </c>
@@ -26277,7 +26313,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="714" spans="1:12">
+    <row r="714" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A714" s="1">
         <v>712</v>
       </c>
@@ -26309,7 +26345,7 @@
         <v>23000</v>
       </c>
     </row>
-    <row r="715" spans="1:12">
+    <row r="715" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A715" s="1">
         <v>713</v>
       </c>
@@ -26341,7 +26377,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="716" spans="1:12">
+    <row r="716" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A716" s="1">
         <v>714</v>
       </c>
@@ -26373,7 +26409,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="717" spans="1:12">
+    <row r="717" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A717" s="1">
         <v>715</v>
       </c>
@@ -26405,7 +26441,7 @@
         <v>26000</v>
       </c>
     </row>
-    <row r="718" spans="1:12">
+    <row r="718" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A718" s="1">
         <v>716</v>
       </c>
@@ -26437,7 +26473,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="719" spans="1:12">
+    <row r="719" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A719" s="1">
         <v>717</v>
       </c>
@@ -26469,7 +26505,7 @@
         <v>28000</v>
       </c>
     </row>
-    <row r="720" spans="1:12">
+    <row r="720" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A720" s="1">
         <v>718</v>
       </c>
@@ -26501,7 +26537,7 @@
         <v>29000</v>
       </c>
     </row>
-    <row r="721" spans="1:12">
+    <row r="721" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A721" s="1">
         <v>719</v>
       </c>
@@ -26533,7 +26569,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="722" spans="1:12">
+    <row r="722" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A722" s="1">
         <v>720</v>
       </c>
@@ -26571,7 +26607,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="723" spans="1:12">
+    <row r="723" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A723" s="1">
         <v>721</v>
       </c>
@@ -26609,7 +26645,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="724" spans="1:12">
+    <row r="724" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A724" s="1">
         <v>722</v>
       </c>
@@ -26647,7 +26683,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="725" spans="1:12">
+    <row r="725" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A725" s="1">
         <v>723</v>
       </c>
@@ -26685,7 +26721,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="726" spans="1:12">
+    <row r="726" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A726" s="1">
         <v>724</v>
       </c>
@@ -26723,7 +26759,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="727" spans="1:12">
+    <row r="727" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A727" s="1">
         <v>725</v>
       </c>
@@ -26761,7 +26797,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="728" spans="1:12">
+    <row r="728" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A728" s="1">
         <v>726</v>
       </c>
@@ -26799,7 +26835,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="729" spans="1:12">
+    <row r="729" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A729" s="1">
         <v>727</v>
       </c>
@@ -26831,13 +26867,13 @@
         <v>8000</v>
       </c>
       <c r="K729">
-        <v>2620.8</v>
+        <v>2620.8000000000002</v>
       </c>
       <c r="L729" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="730" spans="1:12">
+    <row r="730" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A730" s="1">
         <v>728</v>
       </c>
@@ -26875,7 +26911,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="731" spans="1:12">
+    <row r="731" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A731" s="1">
         <v>729</v>
       </c>
@@ -26907,7 +26943,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="732" spans="1:12">
+    <row r="732" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A732" s="1">
         <v>730</v>
       </c>
@@ -26945,7 +26981,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="733" spans="1:12">
+    <row r="733" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A733" s="1">
         <v>731</v>
       </c>
@@ -26983,7 +27019,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="734" spans="1:12">
+    <row r="734" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A734" s="1">
         <v>732</v>
       </c>
@@ -27021,7 +27057,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="735" spans="1:12">
+    <row r="735" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A735" s="1">
         <v>733</v>
       </c>
@@ -27059,7 +27095,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="736" spans="1:12">
+    <row r="736" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A736" s="1">
         <v>734</v>
       </c>
@@ -27097,7 +27133,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="737" spans="1:12">
+    <row r="737" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A737" s="1">
         <v>735</v>
       </c>
@@ -27135,7 +27171,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="738" spans="1:12">
+    <row r="738" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A738" s="1">
         <v>736</v>
       </c>
@@ -27173,7 +27209,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="739" spans="1:12">
+    <row r="739" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A739" s="1">
         <v>737</v>
       </c>
@@ -27211,7 +27247,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="740" spans="1:12">
+    <row r="740" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A740" s="1">
         <v>738</v>
       </c>
@@ -27249,7 +27285,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="741" spans="1:12">
+    <row r="741" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A741" s="1">
         <v>739</v>
       </c>
@@ -27281,7 +27317,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="742" spans="1:12">
+    <row r="742" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A742" s="1">
         <v>740</v>
       </c>
@@ -27313,7 +27349,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="743" spans="1:12">
+    <row r="743" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A743" s="1">
         <v>741</v>
       </c>
@@ -27345,7 +27381,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="744" spans="1:12">
+    <row r="744" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A744" s="1">
         <v>742</v>
       </c>
@@ -27377,7 +27413,7 @@
         <v>23000</v>
       </c>
     </row>
-    <row r="745" spans="1:12">
+    <row r="745" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A745" s="1">
         <v>743</v>
       </c>
@@ -27409,7 +27445,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="746" spans="1:12">
+    <row r="746" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A746" s="1">
         <v>744</v>
       </c>
@@ -27441,7 +27477,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="747" spans="1:12">
+    <row r="747" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A747" s="1">
         <v>745</v>
       </c>
@@ -27473,7 +27509,7 @@
         <v>26000</v>
       </c>
     </row>
-    <row r="748" spans="1:12">
+    <row r="748" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A748" s="1">
         <v>746</v>
       </c>
@@ -27505,7 +27541,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="749" spans="1:12">
+    <row r="749" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A749" s="1">
         <v>747</v>
       </c>
@@ -27537,7 +27573,7 @@
         <v>28000</v>
       </c>
     </row>
-    <row r="750" spans="1:12">
+    <row r="750" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A750" s="1">
         <v>748</v>
       </c>
@@ -27569,7 +27605,7 @@
         <v>29000</v>
       </c>
     </row>
-    <row r="751" spans="1:12">
+    <row r="751" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A751" s="1">
         <v>749</v>
       </c>
@@ -27601,7 +27637,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="752" spans="1:12">
+    <row r="752" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A752" s="1">
         <v>750</v>
       </c>
@@ -27639,7 +27675,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="753" spans="1:12">
+    <row r="753" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A753" s="1">
         <v>751</v>
       </c>
@@ -27677,7 +27713,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="754" spans="1:12">
+    <row r="754" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A754" s="1">
         <v>752</v>
       </c>
@@ -27715,7 +27751,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="755" spans="1:12">
+    <row r="755" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A755" s="1">
         <v>753</v>
       </c>
@@ -27747,13 +27783,13 @@
         <v>4000</v>
       </c>
       <c r="K755">
-        <v>827.1900000000001</v>
+        <v>827.19</v>
       </c>
       <c r="L755" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="756" spans="1:12">
+    <row r="756" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A756" s="1">
         <v>754</v>
       </c>
@@ -27785,13 +27821,13 @@
         <v>5000</v>
       </c>
       <c r="K756">
-        <v>1138.41</v>
+        <v>1138.4100000000001</v>
       </c>
       <c r="L756" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="757" spans="1:12">
+    <row r="757" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A757" s="1">
         <v>755</v>
       </c>
@@ -27829,7 +27865,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="758" spans="1:12">
+    <row r="758" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A758" s="1">
         <v>756</v>
       </c>
@@ -27867,7 +27903,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="759" spans="1:12">
+    <row r="759" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A759" s="1">
         <v>757</v>
       </c>
@@ -27905,7 +27941,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="760" spans="1:12">
+    <row r="760" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A760" s="1">
         <v>758</v>
       </c>
@@ -27943,7 +27979,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="761" spans="1:12">
+    <row r="761" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A761" s="1">
         <v>759</v>
       </c>
@@ -27981,7 +28017,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="762" spans="1:12">
+    <row r="762" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A762" s="1">
         <v>760</v>
       </c>
@@ -28019,7 +28055,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="763" spans="1:12">
+    <row r="763" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A763" s="1">
         <v>761</v>
       </c>
@@ -28057,7 +28093,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="764" spans="1:12">
+    <row r="764" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A764" s="1">
         <v>762</v>
       </c>
@@ -28095,7 +28131,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="765" spans="1:12">
+    <row r="765" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A765" s="1">
         <v>763</v>
       </c>
@@ -28127,7 +28163,7 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="766" spans="1:12">
+    <row r="766" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A766" s="1">
         <v>764</v>
       </c>
@@ -28165,7 +28201,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="767" spans="1:12">
+    <row r="767" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A767" s="1">
         <v>765</v>
       </c>
@@ -28203,7 +28239,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="768" spans="1:12">
+    <row r="768" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A768" s="1">
         <v>766</v>
       </c>
@@ -28241,7 +28277,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="769" spans="1:12">
+    <row r="769" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A769" s="1">
         <v>767</v>
       </c>
@@ -28279,7 +28315,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="770" spans="1:12">
+    <row r="770" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A770" s="1">
         <v>768</v>
       </c>
@@ -28317,7 +28353,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="771" spans="1:12">
+    <row r="771" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A771" s="1">
         <v>769</v>
       </c>
@@ -28349,7 +28385,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="772" spans="1:12">
+    <row r="772" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A772" s="1">
         <v>770</v>
       </c>
@@ -28381,7 +28417,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="773" spans="1:12">
+    <row r="773" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A773" s="1">
         <v>771</v>
       </c>
@@ -28413,7 +28449,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="774" spans="1:12">
+    <row r="774" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A774" s="1">
         <v>772</v>
       </c>
@@ -28445,7 +28481,7 @@
         <v>23000</v>
       </c>
     </row>
-    <row r="775" spans="1:12">
+    <row r="775" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A775" s="1">
         <v>773</v>
       </c>
@@ -28477,7 +28513,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="776" spans="1:12">
+    <row r="776" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A776" s="1">
         <v>774</v>
       </c>
@@ -28509,7 +28545,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="777" spans="1:12">
+    <row r="777" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A777" s="1">
         <v>775</v>
       </c>
@@ -28541,7 +28577,7 @@
         <v>26000</v>
       </c>
     </row>
-    <row r="778" spans="1:12">
+    <row r="778" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A778" s="1">
         <v>776</v>
       </c>
@@ -28573,7 +28609,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="779" spans="1:12">
+    <row r="779" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A779" s="1">
         <v>777</v>
       </c>
@@ -28605,7 +28641,7 @@
         <v>28000</v>
       </c>
     </row>
-    <row r="780" spans="1:12">
+    <row r="780" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A780" s="1">
         <v>778</v>
       </c>
@@ -28637,7 +28673,7 @@
         <v>29000</v>
       </c>
     </row>
-    <row r="781" spans="1:12">
+    <row r="781" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A781" s="1">
         <v>779</v>
       </c>
@@ -28669,7 +28705,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="782" spans="1:12">
+    <row r="782" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A782" s="1">
         <v>780</v>
       </c>
@@ -28707,7 +28743,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="783" spans="1:12">
+    <row r="783" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A783" s="1">
         <v>781</v>
       </c>
@@ -28745,7 +28781,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="784" spans="1:12">
+    <row r="784" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A784" s="1">
         <v>782</v>
       </c>
@@ -28783,7 +28819,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="785" spans="1:12">
+    <row r="785" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A785" s="1">
         <v>783</v>
       </c>
@@ -28821,7 +28857,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="786" spans="1:12">
+    <row r="786" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A786" s="1">
         <v>784</v>
       </c>
@@ -28859,7 +28895,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="787" spans="1:12">
+    <row r="787" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A787" s="1">
         <v>785</v>
       </c>
@@ -28891,13 +28927,13 @@
         <v>6000</v>
       </c>
       <c r="K787">
-        <v>1105.65</v>
+        <v>1105.6500000000001</v>
       </c>
       <c r="L787" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="788" spans="1:12">
+    <row r="788" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A788" s="1">
         <v>786</v>
       </c>
@@ -28935,7 +28971,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="789" spans="1:12">
+    <row r="789" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A789" s="1">
         <v>787</v>
       </c>
@@ -28973,7 +29009,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="790" spans="1:12">
+    <row r="790" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A790" s="1">
         <v>788</v>
       </c>
@@ -29011,7 +29047,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="791" spans="1:12">
+    <row r="791" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A791" s="1">
         <v>789</v>
       </c>
@@ -29049,7 +29085,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="792" spans="1:12">
+    <row r="792" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A792" s="1">
         <v>790</v>
       </c>
@@ -29087,7 +29123,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="793" spans="1:12">
+    <row r="793" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A793" s="1">
         <v>791</v>
       </c>
@@ -29125,7 +29161,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="794" spans="1:12">
+    <row r="794" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A794" s="1">
         <v>792</v>
       </c>
@@ -29163,7 +29199,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="795" spans="1:12">
+    <row r="795" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A795" s="1">
         <v>793</v>
       </c>
@@ -29201,7 +29237,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="796" spans="1:12">
+    <row r="796" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A796" s="1">
         <v>794</v>
       </c>
@@ -29233,13 +29269,13 @@
         <v>15000</v>
       </c>
       <c r="K796">
-        <v>2373.93</v>
+        <v>2373.9299999999998</v>
       </c>
       <c r="L796" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="797" spans="1:12">
+    <row r="797" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A797" s="1">
         <v>795</v>
       </c>
@@ -29277,7 +29313,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="798" spans="1:12">
+    <row r="798" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A798" s="1">
         <v>796</v>
       </c>
@@ -29315,7 +29351,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="799" spans="1:12">
+    <row r="799" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A799" s="1">
         <v>797</v>
       </c>
@@ -29353,7 +29389,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="800" spans="1:12">
+    <row r="800" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A800" s="1">
         <v>798</v>
       </c>
@@ -29391,7 +29427,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="801" spans="1:12">
+    <row r="801" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A801" s="1">
         <v>799</v>
       </c>
@@ -29423,7 +29459,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="802" spans="1:12">
+    <row r="802" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A802" s="1">
         <v>800</v>
       </c>
@@ -29455,7 +29491,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="803" spans="1:12">
+    <row r="803" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A803" s="1">
         <v>801</v>
       </c>
@@ -29487,7 +29523,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="804" spans="1:12">
+    <row r="804" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A804" s="1">
         <v>802</v>
       </c>
@@ -29519,7 +29555,7 @@
         <v>23000</v>
       </c>
     </row>
-    <row r="805" spans="1:12">
+    <row r="805" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A805" s="1">
         <v>803</v>
       </c>
@@ -29551,7 +29587,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="806" spans="1:12">
+    <row r="806" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A806" s="1">
         <v>804</v>
       </c>
@@ -29583,7 +29619,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="807" spans="1:12">
+    <row r="807" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A807" s="1">
         <v>805</v>
       </c>
@@ -29615,7 +29651,7 @@
         <v>26000</v>
       </c>
     </row>
-    <row r="808" spans="1:12">
+    <row r="808" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A808" s="1">
         <v>806</v>
       </c>
@@ -29647,7 +29683,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="809" spans="1:12">
+    <row r="809" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A809" s="1">
         <v>807</v>
       </c>
@@ -29679,7 +29715,7 @@
         <v>28000</v>
       </c>
     </row>
-    <row r="810" spans="1:12">
+    <row r="810" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A810" s="1">
         <v>808</v>
       </c>
@@ -29711,7 +29747,7 @@
         <v>29000</v>
       </c>
     </row>
-    <row r="811" spans="1:12">
+    <row r="811" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A811" s="1">
         <v>809</v>
       </c>
@@ -29743,7 +29779,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="812" spans="1:12">
+    <row r="812" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A812" s="1">
         <v>810</v>
       </c>
@@ -29781,7 +29817,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="813" spans="1:12">
+    <row r="813" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A813" s="1">
         <v>811</v>
       </c>
@@ -29819,7 +29855,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="814" spans="1:12">
+    <row r="814" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A814" s="1">
         <v>812</v>
       </c>
@@ -29857,7 +29893,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="815" spans="1:12">
+    <row r="815" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A815" s="1">
         <v>813</v>
       </c>
@@ -29895,7 +29931,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="816" spans="1:12">
+    <row r="816" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A816" s="1">
         <v>814</v>
       </c>
@@ -29933,7 +29969,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="817" spans="1:12">
+    <row r="817" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A817" s="1">
         <v>815</v>
       </c>
@@ -29971,7 +30007,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="818" spans="1:12">
+    <row r="818" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A818" s="1">
         <v>816</v>
       </c>
@@ -30009,7 +30045,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="819" spans="1:12">
+    <row r="819" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A819" s="1">
         <v>817</v>
       </c>
@@ -30047,7 +30083,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="820" spans="1:12">
+    <row r="820" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A820" s="1">
         <v>818</v>
       </c>
@@ -30085,7 +30121,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="821" spans="1:12">
+    <row r="821" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A821" s="1">
         <v>819</v>
       </c>
@@ -30117,13 +30153,13 @@
         <v>10000</v>
       </c>
       <c r="K821">
-        <v>940.6799999999999</v>
+        <v>940.68</v>
       </c>
       <c r="L821" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="822" spans="1:12">
+    <row r="822" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A822" s="1">
         <v>820</v>
       </c>
@@ -30155,13 +30191,13 @@
         <v>11000</v>
       </c>
       <c r="K822">
-        <v>957.0599999999999</v>
+        <v>957.06</v>
       </c>
       <c r="L822" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="823" spans="1:12">
+    <row r="823" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A823" s="1">
         <v>821</v>
       </c>
@@ -30193,13 +30229,13 @@
         <v>12000</v>
       </c>
       <c r="K823">
-        <v>973.4400000000001</v>
+        <v>973.44</v>
       </c>
       <c r="L823" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="824" spans="1:12">
+    <row r="824" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A824" s="1">
         <v>822</v>
       </c>
@@ -30231,13 +30267,13 @@
         <v>13000</v>
       </c>
       <c r="K824">
-        <v>986.3099999999999</v>
+        <v>986.31</v>
       </c>
       <c r="L824" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="825" spans="1:12">
+    <row r="825" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A825" s="1">
         <v>823</v>
       </c>
@@ -30275,7 +30311,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="826" spans="1:12">
+    <row r="826" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A826" s="1">
         <v>824</v>
       </c>
@@ -30313,7 +30349,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="827" spans="1:12">
+    <row r="827" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A827" s="1">
         <v>825</v>
       </c>
@@ -30351,7 +30387,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="828" spans="1:12">
+    <row r="828" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A828" s="1">
         <v>826</v>
       </c>
@@ -30389,7 +30425,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="829" spans="1:12">
+    <row r="829" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A829" s="1">
         <v>827</v>
       </c>
@@ -30421,13 +30457,13 @@
         <v>18000</v>
       </c>
       <c r="K829">
-        <v>1055.34</v>
+        <v>1055.3399999999999</v>
       </c>
       <c r="L829" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="830" spans="1:12">
+    <row r="830" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A830" s="1">
         <v>828</v>
       </c>
@@ -30459,13 +30495,13 @@
         <v>19000</v>
       </c>
       <c r="K830">
-        <v>1065.87</v>
+        <v>1065.8699999999999</v>
       </c>
       <c r="L830" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="831" spans="1:12">
+    <row r="831" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A831" s="1">
         <v>829</v>
       </c>
@@ -30497,7 +30533,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="832" spans="1:12">
+    <row r="832" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A832" s="1">
         <v>830</v>
       </c>
@@ -30529,7 +30565,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="833" spans="1:12">
+    <row r="833" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A833" s="1">
         <v>831</v>
       </c>
@@ -30561,7 +30597,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="834" spans="1:12">
+    <row r="834" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A834" s="1">
         <v>832</v>
       </c>
@@ -30593,7 +30629,7 @@
         <v>23000</v>
       </c>
     </row>
-    <row r="835" spans="1:12">
+    <row r="835" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A835" s="1">
         <v>833</v>
       </c>
@@ -30625,7 +30661,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="836" spans="1:12">
+    <row r="836" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A836" s="1">
         <v>834</v>
       </c>
@@ -30657,7 +30693,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="837" spans="1:12">
+    <row r="837" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A837" s="1">
         <v>835</v>
       </c>
@@ -30689,7 +30725,7 @@
         <v>26000</v>
       </c>
     </row>
-    <row r="838" spans="1:12">
+    <row r="838" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A838" s="1">
         <v>836</v>
       </c>
@@ -30721,7 +30757,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="839" spans="1:12">
+    <row r="839" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A839" s="1">
         <v>837</v>
       </c>
@@ -30753,7 +30789,7 @@
         <v>28000</v>
       </c>
     </row>
-    <row r="840" spans="1:12">
+    <row r="840" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A840" s="1">
         <v>838</v>
       </c>
@@ -30785,7 +30821,7 @@
         <v>29000</v>
       </c>
     </row>
-    <row r="841" spans="1:12">
+    <row r="841" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A841" s="1">
         <v>839</v>
       </c>
@@ -30817,7 +30853,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="842" spans="1:12">
+    <row r="842" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A842" s="1">
         <v>840</v>
       </c>
@@ -30849,13 +30885,13 @@
         <v>1000</v>
       </c>
       <c r="K842">
-        <v>613.3099999999999</v>
+        <v>613.30999999999995</v>
       </c>
       <c r="L842" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="843" spans="1:12">
+    <row r="843" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A843" s="1">
         <v>841</v>
       </c>
@@ -30893,7 +30929,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="844" spans="1:12">
+    <row r="844" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A844" s="1">
         <v>842</v>
       </c>
@@ -30931,7 +30967,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="845" spans="1:12">
+    <row r="845" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A845" s="1">
         <v>843</v>
       </c>
@@ -30969,7 +31005,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="846" spans="1:12">
+    <row r="846" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A846" s="1">
         <v>844</v>
       </c>
@@ -31007,7 +31043,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="847" spans="1:12">
+    <row r="847" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A847" s="1">
         <v>845</v>
       </c>
@@ -31045,7 +31081,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="848" spans="1:12">
+    <row r="848" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A848" s="1">
         <v>846</v>
       </c>
@@ -31083,7 +31119,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="849" spans="1:12">
+    <row r="849" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A849" s="1">
         <v>847</v>
       </c>
@@ -31121,7 +31157,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="850" spans="1:12">
+    <row r="850" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A850" s="1">
         <v>848</v>
       </c>
@@ -31159,7 +31195,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="851" spans="1:12">
+    <row r="851" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A851" s="1">
         <v>849</v>
       </c>
@@ -31197,7 +31233,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="852" spans="1:12">
+    <row r="852" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A852" s="1">
         <v>850</v>
       </c>
@@ -31229,13 +31265,13 @@
         <v>11000</v>
       </c>
       <c r="K852">
-        <v>2431.26</v>
+        <v>2431.2600000000002</v>
       </c>
       <c r="L852" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="853" spans="1:12">
+    <row r="853" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A853" s="1">
         <v>851</v>
       </c>
@@ -31273,7 +31309,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="854" spans="1:12">
+    <row r="854" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A854" s="1">
         <v>852</v>
       </c>
@@ -31311,7 +31347,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="855" spans="1:12">
+    <row r="855" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A855" s="1">
         <v>853</v>
       </c>
@@ -31349,7 +31385,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="856" spans="1:12">
+    <row r="856" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A856" s="1">
         <v>854</v>
       </c>
@@ -31387,7 +31423,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="857" spans="1:12">
+    <row r="857" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A857" s="1">
         <v>855</v>
       </c>
@@ -31425,7 +31461,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="858" spans="1:12">
+    <row r="858" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A858" s="1">
         <v>856</v>
       </c>
@@ -31463,7 +31499,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="859" spans="1:12">
+    <row r="859" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A859" s="1">
         <v>857</v>
       </c>
@@ -31501,7 +31537,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="860" spans="1:12">
+    <row r="860" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A860" s="1">
         <v>858</v>
       </c>
@@ -31539,7 +31575,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="861" spans="1:12">
+    <row r="861" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A861" s="1">
         <v>859</v>
       </c>
@@ -31571,7 +31607,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="862" spans="1:12">
+    <row r="862" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A862" s="1">
         <v>860</v>
       </c>
@@ -31603,7 +31639,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="863" spans="1:12">
+    <row r="863" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A863" s="1">
         <v>861</v>
       </c>
@@ -31635,7 +31671,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="864" spans="1:12">
+    <row r="864" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A864" s="1">
         <v>862</v>
       </c>
@@ -31667,7 +31703,7 @@
         <v>23000</v>
       </c>
     </row>
-    <row r="865" spans="1:10">
+    <row r="865" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A865" s="1">
         <v>863</v>
       </c>
@@ -31699,7 +31735,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="866" spans="1:10">
+    <row r="866" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A866" s="1">
         <v>864</v>
       </c>
@@ -31731,7 +31767,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="867" spans="1:10">
+    <row r="867" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A867" s="1">
         <v>865</v>
       </c>
@@ -31763,7 +31799,7 @@
         <v>26000</v>
       </c>
     </row>
-    <row r="868" spans="1:10">
+    <row r="868" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A868" s="1">
         <v>866</v>
       </c>
@@ -31795,7 +31831,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="869" spans="1:10">
+    <row r="869" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A869" s="1">
         <v>867</v>
       </c>
@@ -31827,7 +31863,7 @@
         <v>28000</v>
       </c>
     </row>
-    <row r="870" spans="1:10">
+    <row r="870" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A870" s="1">
         <v>868</v>
       </c>
@@ -31859,7 +31895,7 @@
         <v>29000</v>
       </c>
     </row>
-    <row r="871" spans="1:10">
+    <row r="871" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A871" s="1">
         <v>869</v>
       </c>
@@ -31892,6 +31928,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L871" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="IUSL"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>